--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -11,8 +11,8 @@
     <sheet name="grondwaterlocatie" sheetId="2" r:id="rId2"/>
     <sheet name="filter" sheetId="3" r:id="rId3"/>
     <sheet name="filtermeting" sheetId="4" r:id="rId4"/>
-    <sheet name="filterdebietmeter" sheetId="5" r:id="rId5"/>
-    <sheet name="opdracht" sheetId="6" r:id="rId6"/>
+    <sheet name="opdracht" sheetId="5" r:id="rId5"/>
+    <sheet name="filterdebietmeter" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -8988,6 +8988,249 @@
     <t>filtermeting</t>
   </si>
   <si>
+    <t>opdrachtgever-choice_1-naam</t>
+  </si>
+  <si>
+    <t>opdrachtgever-choice_1-sequence_1-kbonummer</t>
+  </si>
+  <si>
+    <t>opdrachtgever-choice_1-sequence_1-detailnaam</t>
+  </si>
+  <si>
+    <t>opdrachtgever-choice_1-sequence_1-vestigingsnummer</t>
+  </si>
+  <si>
+    <t>opdrachtgever-contact-naam</t>
+  </si>
+  <si>
+    <t>opdrachtgever-contact-voornaam</t>
+  </si>
+  <si>
+    <t>opdrachtgever-contact-telefoonnummer</t>
+  </si>
+  <si>
+    <t>opdrachtgever-contact-email</t>
+  </si>
+  <si>
+    <t>opdrachtgever-contact-gsm</t>
+  </si>
+  <si>
+    <t>opdrachtgever</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-choice_1-naam</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-choice_1-sequence_1-kbonummer</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-choice_1-sequence_1-detailnaam</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-choice_1-sequence_1-vestigingsnummer</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-contact-naam</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-contact-voornaam</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-contact-telefoonnummer</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-contact-email</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-contact-gsm</t>
+  </si>
+  <si>
+    <t>opdrachtnemer</t>
+  </si>
+  <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-naam</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-sequence_1-kbonummer</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-sequence_1-detailnaam</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-sequence_1-vestigingsnummer</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-naam</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-voornaam</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-telefoonnummer</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-email</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-gsm</t>
+  </si>
+  <si>
+    <t>dataleverancier</t>
+  </si>
+  <si>
+    <t>startdatum</t>
+  </si>
+  <si>
+    <t>einddatum</t>
+  </si>
+  <si>
+    <t>locatie-coordinatenstelsel</t>
+  </si>
+  <si>
+    <t>coordinatenstelsel</t>
+  </si>
+  <si>
+    <t>locatie-wkt</t>
+  </si>
+  <si>
+    <t>wkt</t>
+  </si>
+  <si>
+    <t>locatie</t>
+  </si>
+  <si>
+    <t>kwaliteit-controle</t>
+  </si>
+  <si>
+    <t>controle</t>
+  </si>
+  <si>
+    <t>kwaliteit-origine</t>
+  </si>
+  <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>kwaliteit-aard</t>
+  </si>
+  <si>
+    <t>aard</t>
+  </si>
+  <si>
+    <t>kwaliteit</t>
+  </si>
+  <si>
+    <t>VLAREM</t>
+  </si>
+  <si>
+    <t>VLAREL</t>
+  </si>
+  <si>
+    <t>Oppervlaktedelfstoffendecreet</t>
+  </si>
+  <si>
+    <t>Decreet Diepe Ondergrond</t>
+  </si>
+  <si>
+    <t>andere wettelijke verplichting</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor kartering</t>
+  </si>
+  <si>
+    <t>gebruikt in kartering</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor modellering</t>
+  </si>
+  <si>
+    <t>gebruikt in modellering</t>
+  </si>
+  <si>
+    <t>archiefinvoer</t>
+  </si>
+  <si>
+    <t>wetenschappelijk onderzoek</t>
+  </si>
+  <si>
+    <t>studies/projecten</t>
+  </si>
+  <si>
+    <t>Archeologieregelgeving</t>
+  </si>
+  <si>
+    <t>Geologisch onderzoek</t>
+  </si>
+  <si>
+    <t>Exploratie minerale bronnen</t>
+  </si>
+  <si>
+    <t>Exploitatie minerale bronnen</t>
+  </si>
+  <si>
+    <t>Exploratie energie bronnen</t>
+  </si>
+  <si>
+    <t>Exploitatie energie bronnen</t>
+  </si>
+  <si>
+    <t>Geothermie</t>
+  </si>
+  <si>
+    <t>Berging</t>
+  </si>
+  <si>
+    <t>Exploratie ondergrondse opslag</t>
+  </si>
+  <si>
+    <t>Grondwaterwinning</t>
+  </si>
+  <si>
+    <t>Geofysisch onderzoek</t>
+  </si>
+  <si>
+    <t>Hydrogeologisch onderzoek</t>
+  </si>
+  <si>
+    <t>Bodemkundig onderzoek</t>
+  </si>
+  <si>
+    <t>Geotechnisch onderzoek</t>
+  </si>
+  <si>
+    <t>Geochemisch onderzoek</t>
+  </si>
+  <si>
+    <t>Grondwaterkwaliteit monitoring</t>
+  </si>
+  <si>
+    <t>Grondwaterkwantiteit monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring vervuilde sites</t>
+  </si>
+  <si>
+    <t>Drainage en bemaling</t>
+  </si>
+  <si>
+    <t>Sanering</t>
+  </si>
+  <si>
+    <t>Meerdere</t>
+  </si>
+  <si>
+    <t>Bodemchemisch en bodemfysisch onderzoek</t>
+  </si>
+  <si>
+    <t>PFAS onderzoek</t>
+  </si>
+  <si>
+    <t>CTE onderzoek</t>
+  </si>
+  <si>
     <t>debietmeter-serienummer</t>
   </si>
   <si>
@@ -9016,249 +9259,6 @@
   </si>
   <si>
     <t>filterdebietmeter</t>
-  </si>
-  <si>
-    <t>opdrachtgever-choice_1-naam</t>
-  </si>
-  <si>
-    <t>opdrachtgever-choice_1-sequence_1-kbonummer</t>
-  </si>
-  <si>
-    <t>opdrachtgever-choice_1-sequence_1-detailnaam</t>
-  </si>
-  <si>
-    <t>opdrachtgever-choice_1-sequence_1-vestigingsnummer</t>
-  </si>
-  <si>
-    <t>opdrachtgever-contact-naam</t>
-  </si>
-  <si>
-    <t>opdrachtgever-contact-voornaam</t>
-  </si>
-  <si>
-    <t>opdrachtgever-contact-telefoonnummer</t>
-  </si>
-  <si>
-    <t>opdrachtgever-contact-email</t>
-  </si>
-  <si>
-    <t>opdrachtgever-contact-gsm</t>
-  </si>
-  <si>
-    <t>opdrachtgever</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-naam</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-sequence_1-kbonummer</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-sequence_1-detailnaam</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-sequence_1-vestigingsnummer</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-contact-naam</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-contact-voornaam</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-contact-telefoonnummer</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-contact-email</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-contact-gsm</t>
-  </si>
-  <si>
-    <t>opdrachtnemer</t>
-  </si>
-  <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-naam</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-sequence_1-kbonummer</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-sequence_1-detailnaam</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-sequence_1-vestigingsnummer</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-naam</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-voornaam</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-telefoonnummer</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-email</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-gsm</t>
-  </si>
-  <si>
-    <t>dataleverancier</t>
-  </si>
-  <si>
-    <t>startdatum</t>
-  </si>
-  <si>
-    <t>einddatum</t>
-  </si>
-  <si>
-    <t>locatie-coordinatenstelsel</t>
-  </si>
-  <si>
-    <t>coordinatenstelsel</t>
-  </si>
-  <si>
-    <t>locatie-wkt</t>
-  </si>
-  <si>
-    <t>wkt</t>
-  </si>
-  <si>
-    <t>locatie</t>
-  </si>
-  <si>
-    <t>kwaliteit-controle</t>
-  </si>
-  <si>
-    <t>controle</t>
-  </si>
-  <si>
-    <t>kwaliteit-origine</t>
-  </si>
-  <si>
-    <t>origine</t>
-  </si>
-  <si>
-    <t>kwaliteit-aard</t>
-  </si>
-  <si>
-    <t>aard</t>
-  </si>
-  <si>
-    <t>kwaliteit</t>
-  </si>
-  <si>
-    <t>VLAREM</t>
-  </si>
-  <si>
-    <t>VLAREL</t>
-  </si>
-  <si>
-    <t>Oppervlaktedelfstoffendecreet</t>
-  </si>
-  <si>
-    <t>Decreet Diepe Ondergrond</t>
-  </si>
-  <si>
-    <t>andere wettelijke verplichting</t>
-  </si>
-  <si>
-    <t>uitgevoerd voor kartering</t>
-  </si>
-  <si>
-    <t>gebruikt in kartering</t>
-  </si>
-  <si>
-    <t>uitgevoerd voor modellering</t>
-  </si>
-  <si>
-    <t>gebruikt in modellering</t>
-  </si>
-  <si>
-    <t>archiefinvoer</t>
-  </si>
-  <si>
-    <t>wetenschappelijk onderzoek</t>
-  </si>
-  <si>
-    <t>studies/projecten</t>
-  </si>
-  <si>
-    <t>Archeologieregelgeving</t>
-  </si>
-  <si>
-    <t>Geologisch onderzoek</t>
-  </si>
-  <si>
-    <t>Exploratie minerale bronnen</t>
-  </si>
-  <si>
-    <t>Exploitatie minerale bronnen</t>
-  </si>
-  <si>
-    <t>Exploratie energie bronnen</t>
-  </si>
-  <si>
-    <t>Exploitatie energie bronnen</t>
-  </si>
-  <si>
-    <t>Geothermie</t>
-  </si>
-  <si>
-    <t>Berging</t>
-  </si>
-  <si>
-    <t>Exploratie ondergrondse opslag</t>
-  </si>
-  <si>
-    <t>Grondwaterwinning</t>
-  </si>
-  <si>
-    <t>Geofysisch onderzoek</t>
-  </si>
-  <si>
-    <t>Hydrogeologisch onderzoek</t>
-  </si>
-  <si>
-    <t>Bodemkundig onderzoek</t>
-  </si>
-  <si>
-    <t>Geotechnisch onderzoek</t>
-  </si>
-  <si>
-    <t>Geochemisch onderzoek</t>
-  </si>
-  <si>
-    <t>Grondwaterkwaliteit monitoring</t>
-  </si>
-  <si>
-    <t>Grondwaterkwantiteit monitoring</t>
-  </si>
-  <si>
-    <t>Monitoring vervuilde sites</t>
-  </si>
-  <si>
-    <t>Drainage en bemaling</t>
-  </si>
-  <si>
-    <t>Sanering</t>
-  </si>
-  <si>
-    <t>Meerdere</t>
-  </si>
-  <si>
-    <t>Bodemchemisch en bodemfysisch onderzoek</t>
-  </si>
-  <si>
-    <t>PFAS onderzoek</t>
-  </si>
-  <si>
-    <t>CTE onderzoek</t>
   </si>
 </sst>
 </file>
@@ -9953,7 +9953,7 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Table63" displayName="Table63" ref="DU3:DV10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Table63" displayName="Table63" ref="DU3:DV8" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9963,7 +9963,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Table64" displayName="Table64" ref="DW3:DX8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Table64" displayName="Table64" ref="DW3:DX17" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9973,7 +9973,7 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Table65" displayName="Table65" ref="DY3:DZ17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Table65" displayName="Table65" ref="DY3:DZ27" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9983,7 +9983,7 @@
 </file>
 
 <file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Table66" displayName="Table66" ref="EA3:EB27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Table66" displayName="Table66" ref="EA3:EB60" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9993,7 +9993,7 @@
 </file>
 
 <file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="Table67" displayName="Table67" ref="EC3:ED60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="Table67" displayName="Table67" ref="EC3:ED10" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -10458,18 +10458,18 @@
       <c r="DS1" s="1"/>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1" t="s">
-        <v>2998</v>
+        <v>152</v>
       </c>
       <c r="DV1" s="1"/>
-      <c r="DW1" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
       <c r="DY1" s="1"/>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
+      <c r="EC1" s="1" t="s">
+        <v>3079</v>
+      </c>
       <c r="ED1" s="1"/>
     </row>
     <row r="2" spans="1:134">
@@ -10722,23 +10722,23 @@
       </c>
       <c r="DT2" s="1"/>
       <c r="DU2" s="1" t="s">
-        <v>1569</v>
+        <v>153</v>
       </c>
       <c r="DV2" s="1"/>
       <c r="DW2" s="1" t="s">
-        <v>153</v>
+        <v>3029</v>
       </c>
       <c r="DX2" s="1"/>
       <c r="DY2" s="1" t="s">
-        <v>3039</v>
+        <v>3031</v>
       </c>
       <c r="DZ2" s="1"/>
       <c r="EA2" s="1" t="s">
-        <v>3041</v>
+        <v>166</v>
       </c>
       <c r="EB2" s="1"/>
       <c r="EC2" s="1" t="s">
-        <v>166</v>
+        <v>1569</v>
       </c>
       <c r="ED2" s="1"/>
     </row>
@@ -11520,31 +11520,31 @@
         <v>172</v>
       </c>
       <c r="DU4" t="s">
+        <v>945</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>950</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC4" t="s">
         <v>1061</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>945</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>3044</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>3057</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>950</v>
       </c>
       <c r="ED4" t="s">
         <v>172</v>
@@ -11924,31 +11924,31 @@
         <v>172</v>
       </c>
       <c r="DU5" t="s">
+        <v>946</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>3048</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>951</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC5" t="s">
         <v>1062</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>946</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>3045</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>3058</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>951</v>
       </c>
       <c r="ED5" t="s">
         <v>172</v>
@@ -12316,31 +12316,31 @@
         <v>172</v>
       </c>
       <c r="DU6" t="s">
+        <v>947</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>3036</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>3049</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>952</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC6" t="s">
         <v>1063</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>947</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>3046</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>3059</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>952</v>
       </c>
       <c r="ED6" t="s">
         <v>172</v>
@@ -12624,31 +12624,31 @@
         <v>172</v>
       </c>
       <c r="DU7" t="s">
+        <v>948</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>3037</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>3050</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>953</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC7" t="s">
         <v>1064</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>948</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>3047</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>3060</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>953</v>
       </c>
       <c r="ED7" t="s">
         <v>172</v>
@@ -12914,31 +12914,31 @@
         <v>172</v>
       </c>
       <c r="DU8" t="s">
+        <v>949</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>3051</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>954</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC8" t="s">
         <v>1065</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>949</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>3048</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>3061</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>954</v>
       </c>
       <c r="ED8" t="s">
         <v>172</v>
@@ -13173,26 +13173,26 @@
       <c r="DP9" t="s">
         <v>172</v>
       </c>
-      <c r="DU9" t="s">
+      <c r="DW9" t="s">
+        <v>3039</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>3052</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>955</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC9" t="s">
         <v>1066</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>3049</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>3062</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>955</v>
       </c>
       <c r="ED9" t="s">
         <v>172</v>
@@ -13415,26 +13415,26 @@
       <c r="DP10" t="s">
         <v>172</v>
       </c>
-      <c r="DU10" t="s">
+      <c r="DW10" t="s">
+        <v>3040</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>3053</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>956</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC10" t="s">
         <v>1067</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>3050</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>3063</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>956</v>
       </c>
       <c r="ED10" t="s">
         <v>172</v>
@@ -13639,22 +13639,22 @@
       <c r="DP11" t="s">
         <v>172</v>
       </c>
+      <c r="DW11" t="s">
+        <v>3041</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>172</v>
+      </c>
       <c r="DY11" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="DZ11" t="s">
         <v>172</v>
       </c>
       <c r="EA11" t="s">
-        <v>3064</v>
+        <v>957</v>
       </c>
       <c r="EB11" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>957</v>
-      </c>
-      <c r="ED11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -13839,22 +13839,22 @@
       <c r="DP12" t="s">
         <v>172</v>
       </c>
+      <c r="DW12" t="s">
+        <v>3042</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>172</v>
+      </c>
       <c r="DY12" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="DZ12" t="s">
         <v>172</v>
       </c>
       <c r="EA12" t="s">
-        <v>3065</v>
+        <v>958</v>
       </c>
       <c r="EB12" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC12" t="s">
-        <v>958</v>
-      </c>
-      <c r="ED12" t="s">
         <v>172</v>
       </c>
     </row>
@@ -14009,22 +14009,22 @@
       <c r="DL13" t="s">
         <v>172</v>
       </c>
+      <c r="DW13" t="s">
+        <v>3043</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>172</v>
+      </c>
       <c r="DY13" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="DZ13" t="s">
         <v>172</v>
       </c>
       <c r="EA13" t="s">
-        <v>3066</v>
+        <v>959</v>
       </c>
       <c r="EB13" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>959</v>
-      </c>
-      <c r="ED13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -14173,22 +14173,22 @@
       <c r="DL14" t="s">
         <v>172</v>
       </c>
+      <c r="DW14" t="s">
+        <v>3044</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>172</v>
+      </c>
       <c r="DY14" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="DZ14" t="s">
         <v>172</v>
       </c>
       <c r="EA14" t="s">
-        <v>3067</v>
+        <v>960</v>
       </c>
       <c r="EB14" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>960</v>
-      </c>
-      <c r="ED14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -14337,22 +14337,22 @@
       <c r="DL15" t="s">
         <v>172</v>
       </c>
+      <c r="DW15" t="s">
+        <v>3045</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>172</v>
+      </c>
       <c r="DY15" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="DZ15" t="s">
         <v>172</v>
       </c>
       <c r="EA15" t="s">
-        <v>3068</v>
+        <v>961</v>
       </c>
       <c r="EB15" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>961</v>
-      </c>
-      <c r="ED15" t="s">
         <v>172</v>
       </c>
     </row>
@@ -14501,26 +14501,26 @@
       <c r="DL16" t="s">
         <v>172</v>
       </c>
+      <c r="DW16" t="s">
+        <v>3046</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>172</v>
+      </c>
       <c r="DY16" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="DZ16" t="s">
         <v>172</v>
       </c>
       <c r="EA16" t="s">
-        <v>3069</v>
+        <v>962</v>
       </c>
       <c r="EB16" t="s">
         <v>172</v>
       </c>
-      <c r="EC16" t="s">
-        <v>962</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="7:134">
+    </row>
+    <row r="17" spans="7:132">
       <c r="G17" t="s">
         <v>208</v>
       </c>
@@ -14659,26 +14659,26 @@
       <c r="DL17" t="s">
         <v>172</v>
       </c>
+      <c r="DW17" t="s">
+        <v>952</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>172</v>
+      </c>
       <c r="DY17" t="s">
-        <v>952</v>
+        <v>3060</v>
       </c>
       <c r="DZ17" t="s">
         <v>172</v>
       </c>
       <c r="EA17" t="s">
-        <v>3070</v>
+        <v>963</v>
       </c>
       <c r="EB17" t="s">
         <v>172</v>
       </c>
-      <c r="EC17" t="s">
-        <v>963</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="7:134">
+    </row>
+    <row r="18" spans="7:132">
       <c r="I18" t="s">
         <v>238</v>
       </c>
@@ -14799,20 +14799,20 @@
       <c r="DL18" t="s">
         <v>172</v>
       </c>
+      <c r="DY18" t="s">
+        <v>3061</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>172</v>
+      </c>
       <c r="EA18" t="s">
-        <v>3071</v>
+        <v>964</v>
       </c>
       <c r="EB18" t="s">
         <v>172</v>
       </c>
-      <c r="EC18" t="s">
-        <v>964</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="7:134">
+    </row>
+    <row r="19" spans="7:132">
       <c r="I19" t="s">
         <v>240</v>
       </c>
@@ -14927,20 +14927,20 @@
       <c r="DL19" t="s">
         <v>172</v>
       </c>
+      <c r="DY19" t="s">
+        <v>3062</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>172</v>
+      </c>
       <c r="EA19" t="s">
-        <v>3072</v>
+        <v>965</v>
       </c>
       <c r="EB19" t="s">
         <v>172</v>
       </c>
-      <c r="EC19" t="s">
-        <v>965</v>
-      </c>
-      <c r="ED19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="7:134">
+    </row>
+    <row r="20" spans="7:132">
       <c r="I20" t="s">
         <v>242</v>
       </c>
@@ -15055,20 +15055,20 @@
       <c r="DL20" t="s">
         <v>172</v>
       </c>
+      <c r="DY20" t="s">
+        <v>3063</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>172</v>
+      </c>
       <c r="EA20" t="s">
-        <v>3073</v>
+        <v>966</v>
       </c>
       <c r="EB20" t="s">
         <v>172</v>
       </c>
-      <c r="EC20" t="s">
-        <v>966</v>
-      </c>
-      <c r="ED20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="7:134">
+    </row>
+    <row r="21" spans="7:132">
       <c r="I21" t="s">
         <v>244</v>
       </c>
@@ -15159,20 +15159,20 @@
       <c r="DL21" t="s">
         <v>172</v>
       </c>
+      <c r="DY21" t="s">
+        <v>3064</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>172</v>
+      </c>
       <c r="EA21" t="s">
-        <v>3074</v>
+        <v>967</v>
       </c>
       <c r="EB21" t="s">
         <v>172</v>
       </c>
-      <c r="EC21" t="s">
-        <v>967</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="7:134">
+    </row>
+    <row r="22" spans="7:132">
       <c r="I22" t="s">
         <v>246</v>
       </c>
@@ -15263,20 +15263,20 @@
       <c r="DL22" t="s">
         <v>172</v>
       </c>
+      <c r="DY22" t="s">
+        <v>3065</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>172</v>
+      </c>
       <c r="EA22" t="s">
-        <v>3075</v>
+        <v>968</v>
       </c>
       <c r="EB22" t="s">
         <v>172</v>
       </c>
-      <c r="EC22" t="s">
-        <v>968</v>
-      </c>
-      <c r="ED22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="7:134">
+    </row>
+    <row r="23" spans="7:132">
       <c r="I23" t="s">
         <v>248</v>
       </c>
@@ -15367,20 +15367,20 @@
       <c r="DL23" t="s">
         <v>172</v>
       </c>
+      <c r="DY23" t="s">
+        <v>1871</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>172</v>
+      </c>
       <c r="EA23" t="s">
-        <v>1871</v>
+        <v>969</v>
       </c>
       <c r="EB23" t="s">
         <v>172</v>
       </c>
-      <c r="EC23" t="s">
-        <v>969</v>
-      </c>
-      <c r="ED23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="7:134">
+    </row>
+    <row r="24" spans="7:132">
       <c r="I24" t="s">
         <v>250</v>
       </c>
@@ -15459,20 +15459,20 @@
       <c r="DL24" t="s">
         <v>172</v>
       </c>
+      <c r="DY24" t="s">
+        <v>3066</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>172</v>
+      </c>
       <c r="EA24" t="s">
-        <v>3076</v>
+        <v>970</v>
       </c>
       <c r="EB24" t="s">
         <v>172</v>
       </c>
-      <c r="EC24" t="s">
-        <v>970</v>
-      </c>
-      <c r="ED24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="7:134">
+    </row>
+    <row r="25" spans="7:132">
       <c r="I25" t="s">
         <v>252</v>
       </c>
@@ -15551,20 +15551,20 @@
       <c r="DL25" t="s">
         <v>172</v>
       </c>
+      <c r="DY25" t="s">
+        <v>3067</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>172</v>
+      </c>
       <c r="EA25" t="s">
-        <v>3077</v>
+        <v>971</v>
       </c>
       <c r="EB25" t="s">
         <v>172</v>
       </c>
-      <c r="EC25" t="s">
-        <v>971</v>
-      </c>
-      <c r="ED25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="7:134">
+    </row>
+    <row r="26" spans="7:132">
       <c r="I26" t="s">
         <v>254</v>
       </c>
@@ -15637,20 +15637,20 @@
       <c r="DL26" t="s">
         <v>172</v>
       </c>
+      <c r="DY26" t="s">
+        <v>3068</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>172</v>
+      </c>
       <c r="EA26" t="s">
-        <v>3078</v>
+        <v>972</v>
       </c>
       <c r="EB26" t="s">
         <v>172</v>
       </c>
-      <c r="EC26" t="s">
-        <v>972</v>
-      </c>
-      <c r="ED26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="7:134">
+    </row>
+    <row r="27" spans="7:132">
       <c r="I27" t="s">
         <v>256</v>
       </c>
@@ -15723,20 +15723,20 @@
       <c r="DL27" t="s">
         <v>172</v>
       </c>
+      <c r="DY27" t="s">
+        <v>3069</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>172</v>
+      </c>
       <c r="EA27" t="s">
-        <v>3079</v>
+        <v>973</v>
       </c>
       <c r="EB27" t="s">
         <v>172</v>
       </c>
-      <c r="EC27" t="s">
-        <v>973</v>
-      </c>
-      <c r="ED27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="7:134">
+    </row>
+    <row r="28" spans="7:132">
       <c r="I28" t="s">
         <v>258</v>
       </c>
@@ -15809,14 +15809,14 @@
       <c r="DL28" t="s">
         <v>172</v>
       </c>
-      <c r="EC28" t="s">
+      <c r="EA28" t="s">
         <v>974</v>
       </c>
-      <c r="ED28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="7:134">
+      <c r="EB28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="7:132">
       <c r="I29" t="s">
         <v>260</v>
       </c>
@@ -15889,14 +15889,14 @@
       <c r="DL29" t="s">
         <v>172</v>
       </c>
-      <c r="EC29" t="s">
+      <c r="EA29" t="s">
         <v>975</v>
       </c>
-      <c r="ED29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="7:134">
+      <c r="EB29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="7:132">
       <c r="I30" t="s">
         <v>262</v>
       </c>
@@ -15969,14 +15969,14 @@
       <c r="DL30" t="s">
         <v>172</v>
       </c>
-      <c r="EC30" t="s">
+      <c r="EA30" t="s">
         <v>976</v>
       </c>
-      <c r="ED30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="7:134">
+      <c r="EB30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="7:132">
       <c r="I31" t="s">
         <v>264</v>
       </c>
@@ -16049,14 +16049,14 @@
       <c r="DL31" t="s">
         <v>172</v>
       </c>
-      <c r="EC31" t="s">
+      <c r="EA31" t="s">
         <v>977</v>
       </c>
-      <c r="ED31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="7:134">
+      <c r="EB31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="7:132">
       <c r="I32" t="s">
         <v>266</v>
       </c>
@@ -16129,14 +16129,14 @@
       <c r="DL32" t="s">
         <v>172</v>
       </c>
-      <c r="EC32" t="s">
+      <c r="EA32" t="s">
         <v>978</v>
       </c>
-      <c r="ED32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="9:134">
+      <c r="EB32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="9:132">
       <c r="I33" t="s">
         <v>268</v>
       </c>
@@ -16209,14 +16209,14 @@
       <c r="DL33" t="s">
         <v>172</v>
       </c>
-      <c r="EC33" t="s">
+      <c r="EA33" t="s">
         <v>979</v>
       </c>
-      <c r="ED33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="9:134">
+      <c r="EB33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="9:132">
       <c r="I34" t="s">
         <v>270</v>
       </c>
@@ -16289,14 +16289,14 @@
       <c r="DL34" t="s">
         <v>172</v>
       </c>
-      <c r="EC34" t="s">
+      <c r="EA34" t="s">
         <v>980</v>
       </c>
-      <c r="ED34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="9:134">
+      <c r="EB34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="9:132">
       <c r="I35" t="s">
         <v>272</v>
       </c>
@@ -16369,14 +16369,14 @@
       <c r="DL35" t="s">
         <v>172</v>
       </c>
-      <c r="EC35" t="s">
+      <c r="EA35" t="s">
         <v>981</v>
       </c>
-      <c r="ED35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="9:134">
+      <c r="EB35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="9:132">
       <c r="I36" t="s">
         <v>274</v>
       </c>
@@ -16449,14 +16449,14 @@
       <c r="DL36" t="s">
         <v>172</v>
       </c>
-      <c r="EC36" t="s">
+      <c r="EA36" t="s">
         <v>982</v>
       </c>
-      <c r="ED36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="9:134">
+      <c r="EB36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="9:132">
       <c r="I37" t="s">
         <v>276</v>
       </c>
@@ -16529,14 +16529,14 @@
       <c r="DL37" t="s">
         <v>172</v>
       </c>
-      <c r="EC37" t="s">
+      <c r="EA37" t="s">
         <v>983</v>
       </c>
-      <c r="ED37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="9:134">
+      <c r="EB37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="9:132">
       <c r="I38" t="s">
         <v>278</v>
       </c>
@@ -16609,14 +16609,14 @@
       <c r="DL38" t="s">
         <v>172</v>
       </c>
-      <c r="EC38" t="s">
+      <c r="EA38" t="s">
         <v>984</v>
       </c>
-      <c r="ED38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="9:134">
+      <c r="EB38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="9:132">
       <c r="I39" t="s">
         <v>280</v>
       </c>
@@ -16689,14 +16689,14 @@
       <c r="DL39" t="s">
         <v>172</v>
       </c>
-      <c r="EC39" t="s">
+      <c r="EA39" t="s">
         <v>985</v>
       </c>
-      <c r="ED39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="9:134">
+      <c r="EB39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="9:132">
       <c r="I40" t="s">
         <v>282</v>
       </c>
@@ -16769,14 +16769,14 @@
       <c r="DL40" t="s">
         <v>172</v>
       </c>
-      <c r="EC40" t="s">
+      <c r="EA40" t="s">
         <v>986</v>
       </c>
-      <c r="ED40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="9:134">
+      <c r="EB40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="9:132">
       <c r="I41" t="s">
         <v>284</v>
       </c>
@@ -16849,14 +16849,14 @@
       <c r="DL41" t="s">
         <v>172</v>
       </c>
-      <c r="EC41" t="s">
+      <c r="EA41" t="s">
         <v>987</v>
       </c>
-      <c r="ED41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="9:134">
+      <c r="EB41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="9:132">
       <c r="I42" t="s">
         <v>286</v>
       </c>
@@ -16929,14 +16929,14 @@
       <c r="DL42" t="s">
         <v>172</v>
       </c>
-      <c r="EC42" t="s">
+      <c r="EA42" t="s">
         <v>988</v>
       </c>
-      <c r="ED42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="9:134">
+      <c r="EB42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="9:132">
       <c r="I43" t="s">
         <v>288</v>
       </c>
@@ -17009,14 +17009,14 @@
       <c r="DL43" t="s">
         <v>172</v>
       </c>
-      <c r="EC43" t="s">
+      <c r="EA43" t="s">
         <v>989</v>
       </c>
-      <c r="ED43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="9:134">
+      <c r="EB43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="9:132">
       <c r="I44" t="s">
         <v>290</v>
       </c>
@@ -17089,14 +17089,14 @@
       <c r="DL44" t="s">
         <v>172</v>
       </c>
-      <c r="EC44" t="s">
+      <c r="EA44" t="s">
         <v>990</v>
       </c>
-      <c r="ED44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="9:134">
+      <c r="EB44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="9:132">
       <c r="I45" t="s">
         <v>292</v>
       </c>
@@ -17169,14 +17169,14 @@
       <c r="DL45" t="s">
         <v>172</v>
       </c>
-      <c r="EC45" t="s">
+      <c r="EA45" t="s">
         <v>991</v>
       </c>
-      <c r="ED45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="9:134">
+      <c r="EB45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="9:132">
       <c r="I46" t="s">
         <v>294</v>
       </c>
@@ -17249,14 +17249,14 @@
       <c r="DL46" t="s">
         <v>172</v>
       </c>
-      <c r="EC46" t="s">
+      <c r="EA46" t="s">
         <v>992</v>
       </c>
-      <c r="ED46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="9:134">
+      <c r="EB46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="9:132">
       <c r="I47" t="s">
         <v>296</v>
       </c>
@@ -17329,14 +17329,14 @@
       <c r="DL47" t="s">
         <v>172</v>
       </c>
-      <c r="EC47" t="s">
+      <c r="EA47" t="s">
         <v>993</v>
       </c>
-      <c r="ED47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="9:134">
+      <c r="EB47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="9:132">
       <c r="I48" t="s">
         <v>298</v>
       </c>
@@ -17409,14 +17409,14 @@
       <c r="DL48" t="s">
         <v>172</v>
       </c>
-      <c r="EC48" t="s">
+      <c r="EA48" t="s">
         <v>994</v>
       </c>
-      <c r="ED48" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="9:134">
+      <c r="EB48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="9:132">
       <c r="I49" t="s">
         <v>300</v>
       </c>
@@ -17489,14 +17489,14 @@
       <c r="DL49" t="s">
         <v>172</v>
       </c>
-      <c r="EC49" t="s">
+      <c r="EA49" t="s">
         <v>995</v>
       </c>
-      <c r="ED49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="9:134">
+      <c r="EB49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="9:132">
       <c r="I50" t="s">
         <v>302</v>
       </c>
@@ -17569,14 +17569,14 @@
       <c r="DL50" t="s">
         <v>172</v>
       </c>
-      <c r="EC50" t="s">
+      <c r="EA50" t="s">
         <v>996</v>
       </c>
-      <c r="ED50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="9:134">
+      <c r="EB50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="9:132">
       <c r="I51" t="s">
         <v>304</v>
       </c>
@@ -17649,14 +17649,14 @@
       <c r="DL51" t="s">
         <v>172</v>
       </c>
-      <c r="EC51" t="s">
+      <c r="EA51" t="s">
         <v>997</v>
       </c>
-      <c r="ED51" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="9:134">
+      <c r="EB51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="9:132">
       <c r="I52" t="s">
         <v>306</v>
       </c>
@@ -17723,14 +17723,14 @@
       <c r="DL52" t="s">
         <v>172</v>
       </c>
-      <c r="EC52" t="s">
+      <c r="EA52" t="s">
         <v>998</v>
       </c>
-      <c r="ED52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="9:134">
+      <c r="EB52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="9:132">
       <c r="I53" t="s">
         <v>308</v>
       </c>
@@ -17797,14 +17797,14 @@
       <c r="DL53" t="s">
         <v>172</v>
       </c>
-      <c r="EC53" t="s">
+      <c r="EA53" t="s">
         <v>999</v>
       </c>
-      <c r="ED53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="9:134">
+      <c r="EB53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="9:132">
       <c r="I54" t="s">
         <v>310</v>
       </c>
@@ -17871,14 +17871,14 @@
       <c r="DL54" t="s">
         <v>172</v>
       </c>
-      <c r="EC54" t="s">
+      <c r="EA54" t="s">
         <v>1000</v>
       </c>
-      <c r="ED54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="9:134">
+      <c r="EB54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="9:132">
       <c r="I55" t="s">
         <v>312</v>
       </c>
@@ -17945,14 +17945,14 @@
       <c r="DL55" t="s">
         <v>172</v>
       </c>
-      <c r="EC55" t="s">
+      <c r="EA55" t="s">
         <v>1001</v>
       </c>
-      <c r="ED55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="9:134">
+      <c r="EB55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="9:132">
       <c r="I56" t="s">
         <v>314</v>
       </c>
@@ -18019,14 +18019,14 @@
       <c r="DL56" t="s">
         <v>172</v>
       </c>
-      <c r="EC56" t="s">
+      <c r="EA56" t="s">
         <v>1002</v>
       </c>
-      <c r="ED56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="9:134">
+      <c r="EB56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="9:132">
       <c r="I57" t="s">
         <v>316</v>
       </c>
@@ -18093,14 +18093,14 @@
       <c r="DL57" t="s">
         <v>172</v>
       </c>
-      <c r="EC57" t="s">
+      <c r="EA57" t="s">
         <v>1003</v>
       </c>
-      <c r="ED57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="9:134">
+      <c r="EB57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="9:132">
       <c r="I58" t="s">
         <v>318</v>
       </c>
@@ -18167,14 +18167,14 @@
       <c r="DL58" t="s">
         <v>172</v>
       </c>
-      <c r="EC58" t="s">
+      <c r="EA58" t="s">
         <v>1004</v>
       </c>
-      <c r="ED58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="9:134">
+      <c r="EB58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="9:132">
       <c r="I59" t="s">
         <v>320</v>
       </c>
@@ -18241,14 +18241,14 @@
       <c r="DL59" t="s">
         <v>172</v>
       </c>
-      <c r="EC59" t="s">
+      <c r="EA59" t="s">
         <v>1005</v>
       </c>
-      <c r="ED59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="9:134">
+      <c r="EB59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="9:132">
       <c r="I60" t="s">
         <v>322</v>
       </c>
@@ -18315,14 +18315,14 @@
       <c r="DL60" t="s">
         <v>172</v>
       </c>
-      <c r="EC60" t="s">
+      <c r="EA60" t="s">
         <v>1006</v>
       </c>
-      <c r="ED60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="9:134">
+      <c r="EB60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="9:132">
       <c r="I61" t="s">
         <v>324</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="9:134">
+    <row r="62" spans="9:132">
       <c r="I62" t="s">
         <v>326</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="9:134">
+    <row r="63" spans="9:132">
       <c r="I63" t="s">
         <v>328</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="9:134">
+    <row r="64" spans="9:132">
       <c r="I64" t="s">
         <v>330</v>
       </c>
@@ -33624,12 +33624,12 @@
     <mergeCell ref="DS2:DT2"/>
     <mergeCell ref="BQ1:DT1"/>
     <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DU1:DV1"/>
     <mergeCell ref="DW2:DX2"/>
     <mergeCell ref="DY2:DZ2"/>
     <mergeCell ref="EA2:EB2"/>
+    <mergeCell ref="DU1:EB1"/>
     <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="DW1:ED1"/>
+    <mergeCell ref="EC1:ED1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="67">
@@ -38917,127 +38917,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" hidden="1">
-      <c r="A1" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1">
-      <c r="A2" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1" t="s">
-        <v>2997</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" hidden="1">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1000001">
-      <formula1>'Codelijsten'!$DU$4:$DU$10</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1000001">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1000001">
-      <formula1>1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C4" location="'Codelijsten'!$DU$2" display="filter-filtertype"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39106,58 +38985,58 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>2999</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>3000</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3009</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>3010</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3017</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -39166,58 +39045,58 @@
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>3022</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>3024</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>3034</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>152</v>
@@ -39273,7 +39152,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3008</v>
+        <v>2998</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -39284,7 +39163,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>3018</v>
+        <v>3008</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -39299,10 +39178,10 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>3019</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>3029</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -39313,20 +39192,20 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>3036</v>
+        <v>3026</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -39400,19 +39279,19 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AH3" s="4" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>143</v>
@@ -39580,58 +39459,58 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>3008</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>3000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>3018</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>3010</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>3017</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>4</v>
@@ -39640,58 +39519,58 @@
         <v>6</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>3029</v>
-      </c>
       <c r="X6" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>3022</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>3024</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>3034</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>152</v>
@@ -39773,13 +39652,13 @@
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
-      <formula1>'Codelijsten'!$DW$4:$DW$8</formula1>
+      <formula1>'Codelijsten'!$DU$4:$DU$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7:AL1000001">
-      <formula1>'Codelijsten'!$DY$4:$DY$17</formula1>
+      <formula1>'Codelijsten'!$DW$4:$DW$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AM1000001">
-      <formula1>'Codelijsten'!$EA$4:$EA$27</formula1>
+      <formula1>'Codelijsten'!$DY$4:$DY$27</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
       <formula1>1</formula1>
@@ -39788,14 +39667,135 @@
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
-      <formula1>'Codelijsten'!$EC$4:$EC$60</formula1>
+      <formula1>'Codelijsten'!$EA$4:$EA$60</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AJ6" location="'Codelijsten'!$DW$2" display="status"/>
-    <hyperlink ref="AL6" location="'Codelijsten'!$DY$2" display="kwaliteit-origine"/>
-    <hyperlink ref="AM6" location="'Codelijsten'!$EA$2" display="kwaliteit-aard"/>
-    <hyperlink ref="BB6" location="'Codelijsten'!$EC$2" display="bijlage-bijlage_type"/>
+    <hyperlink ref="AJ6" location="'Codelijsten'!$DU$2" display="status"/>
+    <hyperlink ref="AL6" location="'Codelijsten'!$DW$2" display="kwaliteit-origine"/>
+    <hyperlink ref="AM6" location="'Codelijsten'!$DY$2" display="kwaliteit-aard"/>
+    <hyperlink ref="BB6" location="'Codelijsten'!$EA$2" display="bijlage-bijlage_type"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" hidden="1">
+      <c r="A1" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1">
+      <c r="A2" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1000001">
+      <formula1>'Codelijsten'!$EC$4:$EC$10</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1000001">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1000001">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" location="'Codelijsten'!$EC$2" display="filter-filtertype"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8515" uniqueCount="3080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8531" uniqueCount="3084">
   <si>
     <t>identificatie</t>
   </si>
@@ -8340,6 +8340,15 @@
     <t>PFHxSbranched</t>
   </si>
   <si>
+    <t>Bepaling kleihoudendheid in fractie 0-0.125 mm</t>
+  </si>
+  <si>
+    <t>Bepaling kleihoudendheid in fractie 0-2 mm</t>
+  </si>
+  <si>
+    <t>Grondsoort RIG</t>
+  </si>
+  <si>
     <t>resultaattijd</t>
   </si>
   <si>
@@ -8401,6 +8410,9 @@
   </si>
   <si>
     <t>g MB/100g droog monster</t>
+  </si>
+  <si>
+    <t>g MB/1000g droog monster</t>
   </si>
   <si>
     <t>°C</t>
@@ -9833,7 +9845,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Table52" displayName="Table52" ref="CY3:CZ918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Table52" displayName="Table52" ref="CY3:CZ921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9843,7 +9855,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Table53" displayName="Table53" ref="DA3:DB66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Table53" displayName="Table53" ref="DA3:DB67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9883,7 +9895,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Table57" displayName="Table57" ref="DI3:DJ918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Table57" displayName="Table57" ref="DI3:DJ921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -9893,7 +9905,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Table58" displayName="Table58" ref="DK3:DL66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Table58" displayName="Table58" ref="DK3:DL67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -10317,7 +10329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ED918"/>
+  <dimension ref="A1:ED921"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10400,7 +10412,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
@@ -10468,7 +10480,7 @@
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="ED1" s="1"/>
     </row>
@@ -10726,11 +10738,11 @@
       </c>
       <c r="DV2" s="1"/>
       <c r="DW2" s="1" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="DX2" s="1"/>
       <c r="DY2" s="1" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="DZ2" s="1"/>
       <c r="EA2" s="1" t="s">
@@ -11460,13 +11472,13 @@
         <v>172</v>
       </c>
       <c r="DA4" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="DB4" t="s">
         <v>172</v>
       </c>
       <c r="DC4" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="DD4" t="s">
         <v>172</v>
@@ -11490,7 +11502,7 @@
         <v>172</v>
       </c>
       <c r="DK4" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="DL4" t="s">
         <v>172</v>
@@ -11514,7 +11526,7 @@
         <v>172</v>
       </c>
       <c r="DS4" t="s">
-        <v>2985</v>
+        <v>2989</v>
       </c>
       <c r="DT4" t="s">
         <v>172</v>
@@ -11526,13 +11538,13 @@
         <v>172</v>
       </c>
       <c r="DW4" t="s">
-        <v>3034</v>
+        <v>3038</v>
       </c>
       <c r="DX4" t="s">
         <v>172</v>
       </c>
       <c r="DY4" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="DZ4" t="s">
         <v>172</v>
@@ -11864,13 +11876,13 @@
         <v>172</v>
       </c>
       <c r="DA5" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="DB5" t="s">
         <v>172</v>
       </c>
       <c r="DC5" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="DD5" t="s">
         <v>172</v>
@@ -11882,7 +11894,7 @@
         <v>172</v>
       </c>
       <c r="DG5" t="s">
-        <v>2984</v>
+        <v>2988</v>
       </c>
       <c r="DH5" t="s">
         <v>172</v>
@@ -11894,7 +11906,7 @@
         <v>172</v>
       </c>
       <c r="DK5" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="DL5" t="s">
         <v>172</v>
@@ -11918,7 +11930,7 @@
         <v>172</v>
       </c>
       <c r="DS5" t="s">
-        <v>2986</v>
+        <v>2990</v>
       </c>
       <c r="DT5" t="s">
         <v>172</v>
@@ -11930,13 +11942,13 @@
         <v>172</v>
       </c>
       <c r="DW5" t="s">
-        <v>3035</v>
+        <v>3039</v>
       </c>
       <c r="DX5" t="s">
         <v>172</v>
       </c>
       <c r="DY5" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="DZ5" t="s">
         <v>172</v>
@@ -12262,13 +12274,13 @@
         <v>172</v>
       </c>
       <c r="DA6" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="DB6" t="s">
         <v>172</v>
       </c>
       <c r="DC6" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="DD6" t="s">
         <v>172</v>
@@ -12286,7 +12298,7 @@
         <v>172</v>
       </c>
       <c r="DK6" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="DL6" t="s">
         <v>172</v>
@@ -12310,7 +12322,7 @@
         <v>172</v>
       </c>
       <c r="DS6" t="s">
-        <v>2987</v>
+        <v>2991</v>
       </c>
       <c r="DT6" t="s">
         <v>172</v>
@@ -12322,13 +12334,13 @@
         <v>172</v>
       </c>
       <c r="DW6" t="s">
-        <v>3036</v>
+        <v>3040</v>
       </c>
       <c r="DX6" t="s">
         <v>172</v>
       </c>
       <c r="DY6" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="DZ6" t="s">
         <v>172</v>
@@ -12594,13 +12606,13 @@
         <v>172</v>
       </c>
       <c r="DA7" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="DB7" t="s">
         <v>172</v>
       </c>
       <c r="DC7" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="DD7" t="s">
         <v>172</v>
@@ -12612,7 +12624,7 @@
         <v>172</v>
       </c>
       <c r="DK7" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="DL7" t="s">
         <v>172</v>
@@ -12630,13 +12642,13 @@
         <v>172</v>
       </c>
       <c r="DW7" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
       <c r="DX7" t="s">
         <v>172</v>
       </c>
       <c r="DY7" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="DZ7" t="s">
         <v>172</v>
@@ -12884,13 +12896,13 @@
         <v>172</v>
       </c>
       <c r="DA8" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="DB8" t="s">
         <v>172</v>
       </c>
       <c r="DC8" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="DD8" t="s">
         <v>172</v>
@@ -12902,7 +12914,7 @@
         <v>172</v>
       </c>
       <c r="DK8" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="DL8" t="s">
         <v>172</v>
@@ -12920,13 +12932,13 @@
         <v>172</v>
       </c>
       <c r="DW8" t="s">
-        <v>3038</v>
+        <v>3042</v>
       </c>
       <c r="DX8" t="s">
         <v>172</v>
       </c>
       <c r="DY8" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="DZ8" t="s">
         <v>172</v>
@@ -13144,13 +13156,13 @@
         <v>172</v>
       </c>
       <c r="DA9" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="DB9" t="s">
         <v>172</v>
       </c>
       <c r="DC9" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="DD9" t="s">
         <v>172</v>
@@ -13162,7 +13174,7 @@
         <v>172</v>
       </c>
       <c r="DK9" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="DL9" t="s">
         <v>172</v>
@@ -13174,13 +13186,13 @@
         <v>172</v>
       </c>
       <c r="DW9" t="s">
-        <v>3039</v>
+        <v>3043</v>
       </c>
       <c r="DX9" t="s">
         <v>172</v>
       </c>
       <c r="DY9" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="DZ9" t="s">
         <v>172</v>
@@ -13386,13 +13398,13 @@
         <v>172</v>
       </c>
       <c r="DA10" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="DB10" t="s">
         <v>172</v>
       </c>
       <c r="DC10" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="DD10" t="s">
         <v>172</v>
@@ -13404,7 +13416,7 @@
         <v>172</v>
       </c>
       <c r="DK10" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="DL10" t="s">
         <v>172</v>
@@ -13416,13 +13428,13 @@
         <v>172</v>
       </c>
       <c r="DW10" t="s">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="DX10" t="s">
         <v>172</v>
       </c>
       <c r="DY10" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="DZ10" t="s">
         <v>172</v>
@@ -13610,13 +13622,13 @@
         <v>172</v>
       </c>
       <c r="DA11" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="DB11" t="s">
         <v>172</v>
       </c>
       <c r="DC11" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="DD11" t="s">
         <v>172</v>
@@ -13628,7 +13640,7 @@
         <v>172</v>
       </c>
       <c r="DK11" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="DL11" t="s">
         <v>172</v>
@@ -13640,13 +13652,13 @@
         <v>172</v>
       </c>
       <c r="DW11" t="s">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="DX11" t="s">
         <v>172</v>
       </c>
       <c r="DY11" t="s">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="DZ11" t="s">
         <v>172</v>
@@ -13810,13 +13822,13 @@
         <v>172</v>
       </c>
       <c r="DA12" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="DB12" t="s">
         <v>172</v>
       </c>
       <c r="DC12" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="DD12" t="s">
         <v>172</v>
@@ -13828,7 +13840,7 @@
         <v>172</v>
       </c>
       <c r="DK12" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="DL12" t="s">
         <v>172</v>
@@ -13840,13 +13852,13 @@
         <v>172</v>
       </c>
       <c r="DW12" t="s">
-        <v>3042</v>
+        <v>3046</v>
       </c>
       <c r="DX12" t="s">
         <v>172</v>
       </c>
       <c r="DY12" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="DZ12" t="s">
         <v>172</v>
@@ -13986,13 +13998,13 @@
         <v>172</v>
       </c>
       <c r="DA13" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="DB13" t="s">
         <v>172</v>
       </c>
       <c r="DC13" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="DD13" t="s">
         <v>172</v>
@@ -14004,19 +14016,19 @@
         <v>172</v>
       </c>
       <c r="DK13" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="DL13" t="s">
         <v>172</v>
       </c>
       <c r="DW13" t="s">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="DX13" t="s">
         <v>172</v>
       </c>
       <c r="DY13" t="s">
-        <v>3056</v>
+        <v>3060</v>
       </c>
       <c r="DZ13" t="s">
         <v>172</v>
@@ -14150,13 +14162,13 @@
         <v>172</v>
       </c>
       <c r="DA14" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="DB14" t="s">
         <v>172</v>
       </c>
       <c r="DC14" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="DD14" t="s">
         <v>172</v>
@@ -14168,19 +14180,19 @@
         <v>172</v>
       </c>
       <c r="DK14" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="DL14" t="s">
         <v>172</v>
       </c>
       <c r="DW14" t="s">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="DX14" t="s">
         <v>172</v>
       </c>
       <c r="DY14" t="s">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="DZ14" t="s">
         <v>172</v>
@@ -14314,13 +14326,13 @@
         <v>172</v>
       </c>
       <c r="DA15" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="DB15" t="s">
         <v>172</v>
       </c>
       <c r="DC15" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="DD15" t="s">
         <v>172</v>
@@ -14332,19 +14344,19 @@
         <v>172</v>
       </c>
       <c r="DK15" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="DL15" t="s">
         <v>172</v>
       </c>
       <c r="DW15" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="DX15" t="s">
         <v>172</v>
       </c>
       <c r="DY15" t="s">
-        <v>3058</v>
+        <v>3062</v>
       </c>
       <c r="DZ15" t="s">
         <v>172</v>
@@ -14478,13 +14490,13 @@
         <v>172</v>
       </c>
       <c r="DA16" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="DB16" t="s">
         <v>172</v>
       </c>
       <c r="DC16" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="DD16" t="s">
         <v>172</v>
@@ -14496,19 +14508,19 @@
         <v>172</v>
       </c>
       <c r="DK16" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="DL16" t="s">
         <v>172</v>
       </c>
       <c r="DW16" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="DX16" t="s">
         <v>172</v>
       </c>
       <c r="DY16" t="s">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="DZ16" t="s">
         <v>172</v>
@@ -14636,13 +14648,13 @@
         <v>172</v>
       </c>
       <c r="DA17" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="DB17" t="s">
         <v>172</v>
       </c>
       <c r="DC17" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="DD17" t="s">
         <v>172</v>
@@ -14654,7 +14666,7 @@
         <v>172</v>
       </c>
       <c r="DK17" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="DL17" t="s">
         <v>172</v>
@@ -14666,7 +14678,7 @@
         <v>172</v>
       </c>
       <c r="DY17" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="DZ17" t="s">
         <v>172</v>
@@ -14776,13 +14788,13 @@
         <v>172</v>
       </c>
       <c r="DA18" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="DB18" t="s">
         <v>172</v>
       </c>
       <c r="DC18" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="DD18" t="s">
         <v>172</v>
@@ -14794,13 +14806,13 @@
         <v>172</v>
       </c>
       <c r="DK18" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="DL18" t="s">
         <v>172</v>
       </c>
       <c r="DY18" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="DZ18" t="s">
         <v>172</v>
@@ -14904,7 +14916,7 @@
         <v>172</v>
       </c>
       <c r="DA19" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="DB19" t="s">
         <v>172</v>
@@ -14922,13 +14934,13 @@
         <v>172</v>
       </c>
       <c r="DK19" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="DL19" t="s">
         <v>172</v>
       </c>
       <c r="DY19" t="s">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="DZ19" t="s">
         <v>172</v>
@@ -15032,13 +15044,13 @@
         <v>172</v>
       </c>
       <c r="DA20" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="DB20" t="s">
         <v>172</v>
       </c>
       <c r="DC20" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="DD20" t="s">
         <v>172</v>
@@ -15050,13 +15062,13 @@
         <v>172</v>
       </c>
       <c r="DK20" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="DL20" t="s">
         <v>172</v>
       </c>
       <c r="DY20" t="s">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="DZ20" t="s">
         <v>172</v>
@@ -15136,13 +15148,13 @@
         <v>172</v>
       </c>
       <c r="DA21" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="DB21" t="s">
         <v>172</v>
       </c>
       <c r="DC21" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="DD21" t="s">
         <v>172</v>
@@ -15154,13 +15166,13 @@
         <v>172</v>
       </c>
       <c r="DK21" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="DL21" t="s">
         <v>172</v>
       </c>
       <c r="DY21" t="s">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="DZ21" t="s">
         <v>172</v>
@@ -15240,13 +15252,13 @@
         <v>172</v>
       </c>
       <c r="DA22" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="DB22" t="s">
         <v>172</v>
       </c>
       <c r="DC22" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="DD22" t="s">
         <v>172</v>
@@ -15258,13 +15270,13 @@
         <v>172</v>
       </c>
       <c r="DK22" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="DL22" t="s">
         <v>172</v>
       </c>
       <c r="DY22" t="s">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="DZ22" t="s">
         <v>172</v>
@@ -15344,13 +15356,13 @@
         <v>172</v>
       </c>
       <c r="DA23" t="s">
-        <v>2258</v>
+        <v>2801</v>
       </c>
       <c r="DB23" t="s">
         <v>172</v>
       </c>
       <c r="DC23" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="DD23" t="s">
         <v>172</v>
@@ -15362,7 +15374,7 @@
         <v>172</v>
       </c>
       <c r="DK23" t="s">
-        <v>2258</v>
+        <v>2801</v>
       </c>
       <c r="DL23" t="s">
         <v>172</v>
@@ -15436,13 +15448,13 @@
         <v>172</v>
       </c>
       <c r="DA24" t="s">
-        <v>2798</v>
+        <v>2258</v>
       </c>
       <c r="DB24" t="s">
         <v>172</v>
       </c>
       <c r="DC24" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="DD24" t="s">
         <v>172</v>
@@ -15454,13 +15466,13 @@
         <v>172</v>
       </c>
       <c r="DK24" t="s">
-        <v>2798</v>
+        <v>2258</v>
       </c>
       <c r="DL24" t="s">
         <v>172</v>
       </c>
       <c r="DY24" t="s">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="DZ24" t="s">
         <v>172</v>
@@ -15528,13 +15540,13 @@
         <v>172</v>
       </c>
       <c r="DA25" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="DB25" t="s">
         <v>172</v>
       </c>
       <c r="DC25" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="DD25" t="s">
         <v>172</v>
@@ -15546,13 +15558,13 @@
         <v>172</v>
       </c>
       <c r="DK25" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="DL25" t="s">
         <v>172</v>
       </c>
       <c r="DY25" t="s">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="DZ25" t="s">
         <v>172</v>
@@ -15614,13 +15626,13 @@
         <v>172</v>
       </c>
       <c r="DA26" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="DB26" t="s">
         <v>172</v>
       </c>
       <c r="DC26" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="DD26" t="s">
         <v>172</v>
@@ -15632,13 +15644,13 @@
         <v>172</v>
       </c>
       <c r="DK26" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="DL26" t="s">
         <v>172</v>
       </c>
       <c r="DY26" t="s">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="DZ26" t="s">
         <v>172</v>
@@ -15700,13 +15712,13 @@
         <v>172</v>
       </c>
       <c r="DA27" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="DB27" t="s">
         <v>172</v>
       </c>
       <c r="DC27" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="DD27" t="s">
         <v>172</v>
@@ -15718,13 +15730,13 @@
         <v>172</v>
       </c>
       <c r="DK27" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="DL27" t="s">
         <v>172</v>
       </c>
       <c r="DY27" t="s">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="DZ27" t="s">
         <v>172</v>
@@ -15786,13 +15798,13 @@
         <v>172</v>
       </c>
       <c r="DA28" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="DB28" t="s">
         <v>172</v>
       </c>
       <c r="DC28" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="DD28" t="s">
         <v>172</v>
@@ -15804,7 +15816,7 @@
         <v>172</v>
       </c>
       <c r="DK28" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="DL28" t="s">
         <v>172</v>
@@ -15866,13 +15878,13 @@
         <v>172</v>
       </c>
       <c r="DA29" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="DB29" t="s">
         <v>172</v>
       </c>
       <c r="DC29" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="DD29" t="s">
         <v>172</v>
@@ -15884,7 +15896,7 @@
         <v>172</v>
       </c>
       <c r="DK29" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="DL29" t="s">
         <v>172</v>
@@ -15946,13 +15958,13 @@
         <v>172</v>
       </c>
       <c r="DA30" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="DB30" t="s">
         <v>172</v>
       </c>
       <c r="DC30" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="DD30" t="s">
         <v>172</v>
@@ -15964,7 +15976,7 @@
         <v>172</v>
       </c>
       <c r="DK30" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="DL30" t="s">
         <v>172</v>
@@ -16026,13 +16038,13 @@
         <v>172</v>
       </c>
       <c r="DA31" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="DB31" t="s">
         <v>172</v>
       </c>
       <c r="DC31" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="DD31" t="s">
         <v>172</v>
@@ -16044,7 +16056,7 @@
         <v>172</v>
       </c>
       <c r="DK31" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="DL31" t="s">
         <v>172</v>
@@ -16106,13 +16118,13 @@
         <v>172</v>
       </c>
       <c r="DA32" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="DB32" t="s">
         <v>172</v>
       </c>
       <c r="DC32" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="DD32" t="s">
         <v>172</v>
@@ -16124,7 +16136,7 @@
         <v>172</v>
       </c>
       <c r="DK32" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="DL32" t="s">
         <v>172</v>
@@ -16186,13 +16198,13 @@
         <v>172</v>
       </c>
       <c r="DA33" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="DB33" t="s">
         <v>172</v>
       </c>
       <c r="DC33" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="DD33" t="s">
         <v>172</v>
@@ -16204,7 +16216,7 @@
         <v>172</v>
       </c>
       <c r="DK33" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="DL33" t="s">
         <v>172</v>
@@ -16266,13 +16278,13 @@
         <v>172</v>
       </c>
       <c r="DA34" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="DB34" t="s">
         <v>172</v>
       </c>
       <c r="DC34" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="DD34" t="s">
         <v>172</v>
@@ -16284,7 +16296,7 @@
         <v>172</v>
       </c>
       <c r="DK34" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="DL34" t="s">
         <v>172</v>
@@ -16346,13 +16358,13 @@
         <v>172</v>
       </c>
       <c r="DA35" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="DB35" t="s">
         <v>172</v>
       </c>
       <c r="DC35" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="DD35" t="s">
         <v>172</v>
@@ -16364,7 +16376,7 @@
         <v>172</v>
       </c>
       <c r="DK35" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="DL35" t="s">
         <v>172</v>
@@ -16426,13 +16438,13 @@
         <v>172</v>
       </c>
       <c r="DA36" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="DB36" t="s">
         <v>172</v>
       </c>
       <c r="DC36" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="DD36" t="s">
         <v>172</v>
@@ -16444,7 +16456,7 @@
         <v>172</v>
       </c>
       <c r="DK36" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="DL36" t="s">
         <v>172</v>
@@ -16506,13 +16518,13 @@
         <v>172</v>
       </c>
       <c r="DA37" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="DB37" t="s">
         <v>172</v>
       </c>
       <c r="DC37" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="DD37" t="s">
         <v>172</v>
@@ -16524,7 +16536,7 @@
         <v>172</v>
       </c>
       <c r="DK37" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="DL37" t="s">
         <v>172</v>
@@ -16586,13 +16598,13 @@
         <v>172</v>
       </c>
       <c r="DA38" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="DB38" t="s">
         <v>172</v>
       </c>
       <c r="DC38" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="DD38" t="s">
         <v>172</v>
@@ -16604,7 +16616,7 @@
         <v>172</v>
       </c>
       <c r="DK38" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="DL38" t="s">
         <v>172</v>
@@ -16666,13 +16678,13 @@
         <v>172</v>
       </c>
       <c r="DA39" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="DB39" t="s">
         <v>172</v>
       </c>
       <c r="DC39" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="DD39" t="s">
         <v>172</v>
@@ -16684,7 +16696,7 @@
         <v>172</v>
       </c>
       <c r="DK39" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="DL39" t="s">
         <v>172</v>
@@ -16746,13 +16758,13 @@
         <v>172</v>
       </c>
       <c r="DA40" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="DB40" t="s">
         <v>172</v>
       </c>
       <c r="DC40" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="DD40" t="s">
         <v>172</v>
@@ -16764,7 +16776,7 @@
         <v>172</v>
       </c>
       <c r="DK40" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="DL40" t="s">
         <v>172</v>
@@ -16826,13 +16838,13 @@
         <v>172</v>
       </c>
       <c r="DA41" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="DB41" t="s">
         <v>172</v>
       </c>
       <c r="DC41" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="DD41" t="s">
         <v>172</v>
@@ -16844,7 +16856,7 @@
         <v>172</v>
       </c>
       <c r="DK41" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="DL41" t="s">
         <v>172</v>
@@ -16906,13 +16918,13 @@
         <v>172</v>
       </c>
       <c r="DA42" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="DB42" t="s">
         <v>172</v>
       </c>
       <c r="DC42" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="DD42" t="s">
         <v>172</v>
@@ -16924,7 +16936,7 @@
         <v>172</v>
       </c>
       <c r="DK42" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="DL42" t="s">
         <v>172</v>
@@ -16986,13 +16998,13 @@
         <v>172</v>
       </c>
       <c r="DA43" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="DB43" t="s">
         <v>172</v>
       </c>
       <c r="DC43" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="DD43" t="s">
         <v>172</v>
@@ -17004,7 +17016,7 @@
         <v>172</v>
       </c>
       <c r="DK43" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="DL43" t="s">
         <v>172</v>
@@ -17066,13 +17078,13 @@
         <v>172</v>
       </c>
       <c r="DA44" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="DB44" t="s">
         <v>172</v>
       </c>
       <c r="DC44" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="DD44" t="s">
         <v>172</v>
@@ -17084,7 +17096,7 @@
         <v>172</v>
       </c>
       <c r="DK44" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="DL44" t="s">
         <v>172</v>
@@ -17146,13 +17158,13 @@
         <v>172</v>
       </c>
       <c r="DA45" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="DB45" t="s">
         <v>172</v>
       </c>
       <c r="DC45" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="DD45" t="s">
         <v>172</v>
@@ -17164,7 +17176,7 @@
         <v>172</v>
       </c>
       <c r="DK45" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="DL45" t="s">
         <v>172</v>
@@ -17226,13 +17238,13 @@
         <v>172</v>
       </c>
       <c r="DA46" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="DB46" t="s">
         <v>172</v>
       </c>
       <c r="DC46" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="DD46" t="s">
         <v>172</v>
@@ -17244,7 +17256,7 @@
         <v>172</v>
       </c>
       <c r="DK46" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="DL46" t="s">
         <v>172</v>
@@ -17306,13 +17318,13 @@
         <v>172</v>
       </c>
       <c r="DA47" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="DB47" t="s">
         <v>172</v>
       </c>
       <c r="DC47" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="DD47" t="s">
         <v>172</v>
@@ -17324,7 +17336,7 @@
         <v>172</v>
       </c>
       <c r="DK47" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="DL47" t="s">
         <v>172</v>
@@ -17386,13 +17398,13 @@
         <v>172</v>
       </c>
       <c r="DA48" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="DB48" t="s">
         <v>172</v>
       </c>
       <c r="DC48" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="DD48" t="s">
         <v>172</v>
@@ -17404,7 +17416,7 @@
         <v>172</v>
       </c>
       <c r="DK48" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="DL48" t="s">
         <v>172</v>
@@ -17466,13 +17478,13 @@
         <v>172</v>
       </c>
       <c r="DA49" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="DB49" t="s">
         <v>172</v>
       </c>
       <c r="DC49" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="DD49" t="s">
         <v>172</v>
@@ -17484,7 +17496,7 @@
         <v>172</v>
       </c>
       <c r="DK49" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="DL49" t="s">
         <v>172</v>
@@ -17546,13 +17558,13 @@
         <v>172</v>
       </c>
       <c r="DA50" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="DB50" t="s">
         <v>172</v>
       </c>
       <c r="DC50" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="DD50" t="s">
         <v>172</v>
@@ -17564,7 +17576,7 @@
         <v>172</v>
       </c>
       <c r="DK50" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="DL50" t="s">
         <v>172</v>
@@ -17626,13 +17638,13 @@
         <v>172</v>
       </c>
       <c r="DA51" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="DB51" t="s">
         <v>172</v>
       </c>
       <c r="DC51" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="DD51" t="s">
         <v>172</v>
@@ -17644,7 +17656,7 @@
         <v>172</v>
       </c>
       <c r="DK51" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="DL51" t="s">
         <v>172</v>
@@ -17700,13 +17712,13 @@
         <v>172</v>
       </c>
       <c r="DA52" t="s">
-        <v>211</v>
+        <v>2829</v>
       </c>
       <c r="DB52" t="s">
         <v>172</v>
       </c>
       <c r="DC52" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="DD52" t="s">
         <v>172</v>
@@ -17718,7 +17730,7 @@
         <v>172</v>
       </c>
       <c r="DK52" t="s">
-        <v>211</v>
+        <v>2829</v>
       </c>
       <c r="DL52" t="s">
         <v>172</v>
@@ -17774,13 +17786,13 @@
         <v>172</v>
       </c>
       <c r="DA53" t="s">
-        <v>2826</v>
+        <v>211</v>
       </c>
       <c r="DB53" t="s">
         <v>172</v>
       </c>
       <c r="DC53" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="DD53" t="s">
         <v>172</v>
@@ -17792,7 +17804,7 @@
         <v>172</v>
       </c>
       <c r="DK53" t="s">
-        <v>2826</v>
+        <v>211</v>
       </c>
       <c r="DL53" t="s">
         <v>172</v>
@@ -17848,13 +17860,13 @@
         <v>172</v>
       </c>
       <c r="DA54" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="DB54" t="s">
         <v>172</v>
       </c>
       <c r="DC54" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="DD54" t="s">
         <v>172</v>
@@ -17866,7 +17878,7 @@
         <v>172</v>
       </c>
       <c r="DK54" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="DL54" t="s">
         <v>172</v>
@@ -17922,13 +17934,13 @@
         <v>172</v>
       </c>
       <c r="DA55" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="DB55" t="s">
         <v>172</v>
       </c>
       <c r="DC55" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="DD55" t="s">
         <v>172</v>
@@ -17940,7 +17952,7 @@
         <v>172</v>
       </c>
       <c r="DK55" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="DL55" t="s">
         <v>172</v>
@@ -17996,13 +18008,13 @@
         <v>172</v>
       </c>
       <c r="DA56" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="DB56" t="s">
         <v>172</v>
       </c>
       <c r="DC56" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="DD56" t="s">
         <v>172</v>
@@ -18014,7 +18026,7 @@
         <v>172</v>
       </c>
       <c r="DK56" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="DL56" t="s">
         <v>172</v>
@@ -18070,13 +18082,13 @@
         <v>172</v>
       </c>
       <c r="DA57" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="DB57" t="s">
         <v>172</v>
       </c>
       <c r="DC57" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="DD57" t="s">
         <v>172</v>
@@ -18088,7 +18100,7 @@
         <v>172</v>
       </c>
       <c r="DK57" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="DL57" t="s">
         <v>172</v>
@@ -18144,13 +18156,13 @@
         <v>172</v>
       </c>
       <c r="DA58" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="DB58" t="s">
         <v>172</v>
       </c>
       <c r="DC58" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="DD58" t="s">
         <v>172</v>
@@ -18162,7 +18174,7 @@
         <v>172</v>
       </c>
       <c r="DK58" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="DL58" t="s">
         <v>172</v>
@@ -18218,13 +18230,13 @@
         <v>172</v>
       </c>
       <c r="DA59" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="DB59" t="s">
         <v>172</v>
       </c>
       <c r="DC59" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="DD59" t="s">
         <v>172</v>
@@ -18236,7 +18248,7 @@
         <v>172</v>
       </c>
       <c r="DK59" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="DL59" t="s">
         <v>172</v>
@@ -18292,7 +18304,7 @@
         <v>172</v>
       </c>
       <c r="DA60" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="DB60" t="s">
         <v>172</v>
@@ -18310,7 +18322,7 @@
         <v>172</v>
       </c>
       <c r="DK60" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="DL60" t="s">
         <v>172</v>
@@ -18348,13 +18360,13 @@
         <v>172</v>
       </c>
       <c r="DA61" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="DB61" t="s">
         <v>172</v>
       </c>
       <c r="DC61" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="DD61" t="s">
         <v>172</v>
@@ -18366,7 +18378,7 @@
         <v>172</v>
       </c>
       <c r="DK61" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="DL61" t="s">
         <v>172</v>
@@ -18398,13 +18410,13 @@
         <v>172</v>
       </c>
       <c r="DA62" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="DB62" t="s">
         <v>172</v>
       </c>
       <c r="DC62" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="DD62" t="s">
         <v>172</v>
@@ -18416,7 +18428,7 @@
         <v>172</v>
       </c>
       <c r="DK62" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="DL62" t="s">
         <v>172</v>
@@ -18448,13 +18460,13 @@
         <v>172</v>
       </c>
       <c r="DA63" t="s">
-        <v>2553</v>
+        <v>2839</v>
       </c>
       <c r="DB63" t="s">
         <v>172</v>
       </c>
       <c r="DC63" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="DD63" t="s">
         <v>172</v>
@@ -18466,7 +18478,7 @@
         <v>172</v>
       </c>
       <c r="DK63" t="s">
-        <v>2553</v>
+        <v>2839</v>
       </c>
       <c r="DL63" t="s">
         <v>172</v>
@@ -18498,13 +18510,13 @@
         <v>172</v>
       </c>
       <c r="DA64" t="s">
-        <v>2836</v>
+        <v>2553</v>
       </c>
       <c r="DB64" t="s">
         <v>172</v>
       </c>
       <c r="DC64" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="DD64" t="s">
         <v>172</v>
@@ -18516,7 +18528,7 @@
         <v>172</v>
       </c>
       <c r="DK64" t="s">
-        <v>2836</v>
+        <v>2553</v>
       </c>
       <c r="DL64" t="s">
         <v>172</v>
@@ -18548,13 +18560,13 @@
         <v>172</v>
       </c>
       <c r="DA65" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="DB65" t="s">
         <v>172</v>
       </c>
       <c r="DC65" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="DD65" t="s">
         <v>172</v>
@@ -18566,7 +18578,7 @@
         <v>172</v>
       </c>
       <c r="DK65" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="DL65" t="s">
         <v>172</v>
@@ -18598,13 +18610,13 @@
         <v>172</v>
       </c>
       <c r="DA66" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="DB66" t="s">
         <v>172</v>
       </c>
       <c r="DC66" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="DD66" t="s">
         <v>172</v>
@@ -18616,7 +18628,7 @@
         <v>172</v>
       </c>
       <c r="DK66" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="DL66" t="s">
         <v>172</v>
@@ -18647,8 +18659,14 @@
       <c r="CZ67" t="s">
         <v>172</v>
       </c>
+      <c r="DA67" t="s">
+        <v>2842</v>
+      </c>
+      <c r="DB67" t="s">
+        <v>172</v>
+      </c>
       <c r="DC67" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="DD67" t="s">
         <v>172</v>
@@ -18657,6 +18675,12 @@
         <v>1940</v>
       </c>
       <c r="DJ67" t="s">
+        <v>172</v>
+      </c>
+      <c r="DK67" t="s">
+        <v>2842</v>
+      </c>
+      <c r="DL67" t="s">
         <v>172</v>
       </c>
     </row>
@@ -18686,7 +18710,7 @@
         <v>172</v>
       </c>
       <c r="DC68" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="DD68" t="s">
         <v>172</v>
@@ -18724,7 +18748,7 @@
         <v>172</v>
       </c>
       <c r="DC69" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="DD69" t="s">
         <v>172</v>
@@ -18762,7 +18786,7 @@
         <v>172</v>
       </c>
       <c r="DC70" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="DD70" t="s">
         <v>172</v>
@@ -18800,7 +18824,7 @@
         <v>172</v>
       </c>
       <c r="DC71" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="DD71" t="s">
         <v>172</v>
@@ -18838,7 +18862,7 @@
         <v>172</v>
       </c>
       <c r="DC72" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="DD72" t="s">
         <v>172</v>
@@ -18876,7 +18900,7 @@
         <v>172</v>
       </c>
       <c r="DC73" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="DD73" t="s">
         <v>172</v>
@@ -18914,7 +18938,7 @@
         <v>172</v>
       </c>
       <c r="DC74" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="DD74" t="s">
         <v>172</v>
@@ -18952,7 +18976,7 @@
         <v>172</v>
       </c>
       <c r="DC75" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="DD75" t="s">
         <v>172</v>
@@ -18990,7 +19014,7 @@
         <v>172</v>
       </c>
       <c r="DC76" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="DD76" t="s">
         <v>172</v>
@@ -19028,7 +19052,7 @@
         <v>172</v>
       </c>
       <c r="DC77" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="DD77" t="s">
         <v>172</v>
@@ -19066,7 +19090,7 @@
         <v>172</v>
       </c>
       <c r="DC78" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="DD78" t="s">
         <v>172</v>
@@ -19104,7 +19128,7 @@
         <v>172</v>
       </c>
       <c r="DC79" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="DD79" t="s">
         <v>172</v>
@@ -19142,7 +19166,7 @@
         <v>172</v>
       </c>
       <c r="DC80" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="DD80" t="s">
         <v>172</v>
@@ -19180,7 +19204,7 @@
         <v>172</v>
       </c>
       <c r="DC81" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="DD81" t="s">
         <v>172</v>
@@ -19218,7 +19242,7 @@
         <v>172</v>
       </c>
       <c r="DC82" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="DD82" t="s">
         <v>172</v>
@@ -19256,7 +19280,7 @@
         <v>172</v>
       </c>
       <c r="DC83" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="DD83" t="s">
         <v>172</v>
@@ -19294,7 +19318,7 @@
         <v>172</v>
       </c>
       <c r="DC84" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="DD84" t="s">
         <v>172</v>
@@ -19332,7 +19356,7 @@
         <v>172</v>
       </c>
       <c r="DC85" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="DD85" t="s">
         <v>172</v>
@@ -19370,7 +19394,7 @@
         <v>172</v>
       </c>
       <c r="DC86" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="DD86" t="s">
         <v>172</v>
@@ -19408,7 +19432,7 @@
         <v>172</v>
       </c>
       <c r="DC87" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="DD87" t="s">
         <v>172</v>
@@ -19446,7 +19470,7 @@
         <v>172</v>
       </c>
       <c r="DC88" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="DD88" t="s">
         <v>172</v>
@@ -19484,7 +19508,7 @@
         <v>172</v>
       </c>
       <c r="DC89" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="DD89" t="s">
         <v>172</v>
@@ -19522,7 +19546,7 @@
         <v>172</v>
       </c>
       <c r="DC90" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="DD90" t="s">
         <v>172</v>
@@ -19560,7 +19584,7 @@
         <v>172</v>
       </c>
       <c r="DC91" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="DD91" t="s">
         <v>172</v>
@@ -19636,7 +19660,7 @@
         <v>172</v>
       </c>
       <c r="DC93" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="DD93" t="s">
         <v>172</v>
@@ -19674,7 +19698,7 @@
         <v>172</v>
       </c>
       <c r="DC94" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="DD94" t="s">
         <v>172</v>
@@ -19712,7 +19736,7 @@
         <v>172</v>
       </c>
       <c r="DC95" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="DD95" t="s">
         <v>172</v>
@@ -19750,7 +19774,7 @@
         <v>172</v>
       </c>
       <c r="DC96" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="DD96" t="s">
         <v>172</v>
@@ -19788,7 +19812,7 @@
         <v>172</v>
       </c>
       <c r="DC97" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="DD97" t="s">
         <v>172</v>
@@ -19826,7 +19850,7 @@
         <v>172</v>
       </c>
       <c r="DC98" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="DD98" t="s">
         <v>172</v>
@@ -19864,7 +19888,7 @@
         <v>172</v>
       </c>
       <c r="DC99" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="DD99" t="s">
         <v>172</v>
@@ -19902,7 +19926,7 @@
         <v>172</v>
       </c>
       <c r="DC100" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="DD100" t="s">
         <v>172</v>
@@ -19940,7 +19964,7 @@
         <v>172</v>
       </c>
       <c r="DC101" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="DD101" t="s">
         <v>172</v>
@@ -19978,7 +20002,7 @@
         <v>172</v>
       </c>
       <c r="DC102" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="DD102" t="s">
         <v>172</v>
@@ -20016,7 +20040,7 @@
         <v>172</v>
       </c>
       <c r="DC103" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="DD103" t="s">
         <v>172</v>
@@ -20054,7 +20078,7 @@
         <v>172</v>
       </c>
       <c r="DC104" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="DD104" t="s">
         <v>172</v>
@@ -20092,7 +20116,7 @@
         <v>172</v>
       </c>
       <c r="DC105" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="DD105" t="s">
         <v>172</v>
@@ -20130,7 +20154,7 @@
         <v>172</v>
       </c>
       <c r="DC106" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
       <c r="DD106" t="s">
         <v>172</v>
@@ -20168,7 +20192,7 @@
         <v>172</v>
       </c>
       <c r="DC107" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="DD107" t="s">
         <v>172</v>
@@ -20206,7 +20230,7 @@
         <v>172</v>
       </c>
       <c r="DC108" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
       <c r="DD108" t="s">
         <v>172</v>
@@ -20244,7 +20268,7 @@
         <v>172</v>
       </c>
       <c r="DC109" t="s">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="DD109" t="s">
         <v>172</v>
@@ -20282,7 +20306,7 @@
         <v>172</v>
       </c>
       <c r="DC110" t="s">
-        <v>2942</v>
+        <v>2946</v>
       </c>
       <c r="DD110" t="s">
         <v>172</v>
@@ -20320,7 +20344,7 @@
         <v>172</v>
       </c>
       <c r="DC111" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
       <c r="DD111" t="s">
         <v>172</v>
@@ -20358,7 +20382,7 @@
         <v>172</v>
       </c>
       <c r="DC112" t="s">
-        <v>2944</v>
+        <v>2948</v>
       </c>
       <c r="DD112" t="s">
         <v>172</v>
@@ -20396,7 +20420,7 @@
         <v>172</v>
       </c>
       <c r="DC113" t="s">
-        <v>2945</v>
+        <v>2949</v>
       </c>
       <c r="DD113" t="s">
         <v>172</v>
@@ -20434,7 +20458,7 @@
         <v>172</v>
       </c>
       <c r="DC114" t="s">
-        <v>2946</v>
+        <v>2950</v>
       </c>
       <c r="DD114" t="s">
         <v>172</v>
@@ -20472,7 +20496,7 @@
         <v>172</v>
       </c>
       <c r="DC115" t="s">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="DD115" t="s">
         <v>172</v>
@@ -20510,7 +20534,7 @@
         <v>172</v>
       </c>
       <c r="DC116" t="s">
-        <v>2948</v>
+        <v>2952</v>
       </c>
       <c r="DD116" t="s">
         <v>172</v>
@@ -20548,7 +20572,7 @@
         <v>172</v>
       </c>
       <c r="DC117" t="s">
-        <v>2949</v>
+        <v>2953</v>
       </c>
       <c r="DD117" t="s">
         <v>172</v>
@@ -20586,7 +20610,7 @@
         <v>172</v>
       </c>
       <c r="DC118" t="s">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="DD118" t="s">
         <v>172</v>
@@ -20624,7 +20648,7 @@
         <v>172</v>
       </c>
       <c r="DC119" t="s">
-        <v>2951</v>
+        <v>2955</v>
       </c>
       <c r="DD119" t="s">
         <v>172</v>
@@ -20662,7 +20686,7 @@
         <v>172</v>
       </c>
       <c r="DC120" t="s">
-        <v>2952</v>
+        <v>2956</v>
       </c>
       <c r="DD120" t="s">
         <v>172</v>
@@ -20700,7 +20724,7 @@
         <v>172</v>
       </c>
       <c r="DC121" t="s">
-        <v>2953</v>
+        <v>2957</v>
       </c>
       <c r="DD121" t="s">
         <v>172</v>
@@ -20738,7 +20762,7 @@
         <v>172</v>
       </c>
       <c r="DC122" t="s">
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="DD122" t="s">
         <v>172</v>
@@ -20776,7 +20800,7 @@
         <v>172</v>
       </c>
       <c r="DC123" t="s">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="DD123" t="s">
         <v>172</v>
@@ -20814,7 +20838,7 @@
         <v>172</v>
       </c>
       <c r="DC124" t="s">
-        <v>2956</v>
+        <v>2960</v>
       </c>
       <c r="DD124" t="s">
         <v>172</v>
@@ -20852,7 +20876,7 @@
         <v>172</v>
       </c>
       <c r="DC125" t="s">
-        <v>2957</v>
+        <v>2961</v>
       </c>
       <c r="DD125" t="s">
         <v>172</v>
@@ -20890,7 +20914,7 @@
         <v>172</v>
       </c>
       <c r="DC126" t="s">
-        <v>2958</v>
+        <v>2962</v>
       </c>
       <c r="DD126" t="s">
         <v>172</v>
@@ -20928,7 +20952,7 @@
         <v>172</v>
       </c>
       <c r="DC127" t="s">
-        <v>2959</v>
+        <v>2963</v>
       </c>
       <c r="DD127" t="s">
         <v>172</v>
@@ -20966,7 +20990,7 @@
         <v>172</v>
       </c>
       <c r="DC128" t="s">
-        <v>2960</v>
+        <v>2964</v>
       </c>
       <c r="DD128" t="s">
         <v>172</v>
@@ -21004,7 +21028,7 @@
         <v>172</v>
       </c>
       <c r="DC129" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="DD129" t="s">
         <v>172</v>
@@ -21042,7 +21066,7 @@
         <v>172</v>
       </c>
       <c r="DC130" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="DD130" t="s">
         <v>172</v>
@@ -21080,7 +21104,7 @@
         <v>172</v>
       </c>
       <c r="DC131" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="DD131" t="s">
         <v>172</v>
@@ -21118,7 +21142,7 @@
         <v>172</v>
       </c>
       <c r="DC132" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="DD132" t="s">
         <v>172</v>
@@ -21156,7 +21180,7 @@
         <v>172</v>
       </c>
       <c r="DC133" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="DD133" t="s">
         <v>172</v>
@@ -21194,7 +21218,7 @@
         <v>172</v>
       </c>
       <c r="DC134" t="s">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="DD134" t="s">
         <v>172</v>
@@ -21232,7 +21256,7 @@
         <v>172</v>
       </c>
       <c r="DC135" t="s">
-        <v>2967</v>
+        <v>2971</v>
       </c>
       <c r="DD135" t="s">
         <v>172</v>
@@ -21270,7 +21294,7 @@
         <v>172</v>
       </c>
       <c r="DC136" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="DD136" t="s">
         <v>172</v>
@@ -21308,7 +21332,7 @@
         <v>172</v>
       </c>
       <c r="DC137" t="s">
-        <v>2969</v>
+        <v>2973</v>
       </c>
       <c r="DD137" t="s">
         <v>172</v>
@@ -21334,7 +21358,7 @@
         <v>172</v>
       </c>
       <c r="DC138" t="s">
-        <v>2970</v>
+        <v>2974</v>
       </c>
       <c r="DD138" t="s">
         <v>172</v>
@@ -21360,7 +21384,7 @@
         <v>172</v>
       </c>
       <c r="DC139" t="s">
-        <v>2971</v>
+        <v>2975</v>
       </c>
       <c r="DD139" t="s">
         <v>172</v>
@@ -21386,7 +21410,7 @@
         <v>172</v>
       </c>
       <c r="DC140" t="s">
-        <v>2972</v>
+        <v>2976</v>
       </c>
       <c r="DD140" t="s">
         <v>172</v>
@@ -21412,7 +21436,7 @@
         <v>172</v>
       </c>
       <c r="DC141" t="s">
-        <v>2973</v>
+        <v>2977</v>
       </c>
       <c r="DD141" t="s">
         <v>172</v>
@@ -21464,7 +21488,7 @@
         <v>172</v>
       </c>
       <c r="DC143" t="s">
-        <v>2974</v>
+        <v>2978</v>
       </c>
       <c r="DD143" t="s">
         <v>172</v>
@@ -21490,7 +21514,7 @@
         <v>172</v>
       </c>
       <c r="DC144" t="s">
-        <v>2975</v>
+        <v>2979</v>
       </c>
       <c r="DD144" t="s">
         <v>172</v>
@@ -21516,7 +21540,7 @@
         <v>172</v>
       </c>
       <c r="DC145" t="s">
-        <v>2976</v>
+        <v>2980</v>
       </c>
       <c r="DD145" t="s">
         <v>172</v>
@@ -21542,7 +21566,7 @@
         <v>172</v>
       </c>
       <c r="DC146" t="s">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="DD146" t="s">
         <v>172</v>
@@ -21568,7 +21592,7 @@
         <v>172</v>
       </c>
       <c r="DC147" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="DD147" t="s">
         <v>172</v>
@@ -21594,7 +21618,7 @@
         <v>172</v>
       </c>
       <c r="DC148" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="DD148" t="s">
         <v>172</v>
@@ -21620,7 +21644,7 @@
         <v>172</v>
       </c>
       <c r="DC149" t="s">
-        <v>2980</v>
+        <v>2984</v>
       </c>
       <c r="DD149" t="s">
         <v>172</v>
@@ -21646,7 +21670,7 @@
         <v>172</v>
       </c>
       <c r="DC150" t="s">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="DD150" t="s">
         <v>172</v>
@@ -21672,7 +21696,7 @@
         <v>172</v>
       </c>
       <c r="DC151" t="s">
-        <v>2982</v>
+        <v>2986</v>
       </c>
       <c r="DD151" t="s">
         <v>172</v>
@@ -21698,7 +21722,7 @@
         <v>172</v>
       </c>
       <c r="DC152" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="DD152" t="s">
         <v>172</v>
@@ -33553,6 +33577,48 @@
         <v>2778</v>
       </c>
       <c r="DJ918" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="919" spans="103:114">
+      <c r="CY919" t="s">
+        <v>2779</v>
+      </c>
+      <c r="CZ919" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI919" t="s">
+        <v>2779</v>
+      </c>
+      <c r="DJ919" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="920" spans="103:114">
+      <c r="CY920" t="s">
+        <v>2780</v>
+      </c>
+      <c r="CZ920" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI920" t="s">
+        <v>2780</v>
+      </c>
+      <c r="DJ920" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="921" spans="103:114">
+      <c r="CY921" t="s">
+        <v>2781</v>
+      </c>
+      <c r="CZ921" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI921" t="s">
+        <v>2781</v>
+      </c>
+      <c r="DJ921" t="s">
         <v>172</v>
       </c>
     </row>
@@ -35231,7 +35297,7 @@
       <formula1>'Codelijsten'!$A$4:$A$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001">
       <formula1>'Codelijsten'!$C$4:$C$16</formula1>
@@ -35252,7 +35318,7 @@
       <formula1>'Codelijsten'!$M$4:$M$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ9:AJ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL9:AL1000001">
       <formula1>'Codelijsten'!$O$4:$O$6</formula1>
@@ -35261,7 +35327,7 @@
       <formula1>'Codelijsten'!$Q$4:$Q$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW9:AW1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY9:AY1000001">
       <formula1>'Codelijsten'!$S$4:$S$6</formula1>
@@ -35270,22 +35336,22 @@
       <formula1>'Codelijsten'!$U$4:$U$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ9:BJ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK9:BK1000001">
       <formula1>'Codelijsten'!$W$4:$W$7</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN9:BN1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO9:BO1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$13</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP9:BP1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ9:BZ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CC9:CC1000001">
       <formula1>'Codelijsten'!$AA$4:$AA$17</formula1>
@@ -35300,13 +35366,13 @@
       <formula1>'Codelijsten'!$AG$4:$AG$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CV9:CV1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CX9:CX1000001">
       <formula1>'Codelijsten'!$AI$4:$AI$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CZ9:CZ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DE9:DE1000001">
       <formula1>'Codelijsten'!$AK$4:$AK$60</formula1>
@@ -36007,7 +36073,7 @@
       <formula1>'Codelijsten'!$AO$4:$AO$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
       <formula1>'Codelijsten'!$AQ$4:$AQ$137</formula1>
@@ -36028,7 +36094,7 @@
       <formula1>'Codelijsten'!$BA$4:$BA$9</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q1000001">
       <formula1>'Codelijsten'!$BC$4:$BC$7</formula1>
@@ -36046,13 +36112,13 @@
       <formula1>'Codelijsten'!$BK$4:$BK$11</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT1000001">
       <formula1>'Codelijsten'!$BM$4:$BM$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AV1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA6:BA1000001">
       <formula1>'Codelijsten'!$BO$4:$BO$60</formula1>
@@ -38752,7 +38818,7 @@
       <formula1>'Codelijsten'!$BQ$4:$BQ$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F1000001">
       <formula1>'Codelijsten'!$BS$4:$BS$8</formula1>
@@ -38761,10 +38827,10 @@
       <formula1>'Codelijsten'!$BU$4:$BU$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:N1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P1000001">
       <formula1>'Codelijsten'!$BW$4:$BW$12</formula1>
@@ -38785,19 +38851,19 @@
       <formula1>'Codelijsten'!$CG$4:$CG$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK10:AK1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL10:AL1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM10:AM1000001">
       <formula1>'Codelijsten'!$CI$4:$CI$25</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BA1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB10:BB1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC10:BC1000001">
       <formula1>'Codelijsten'!$CK$4:$CK$12</formula1>
@@ -38818,28 +38884,28 @@
       <formula1>'Codelijsten'!$CU$4:$CU$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX10:BX1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CU10:CU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK10:DK1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DS10:DS1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DU10:DU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DZ10:DZ1000001">
       <formula1>'Codelijsten'!$CW$4:$CW$60</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EB10:EB1000001">
-      <formula1>'Codelijsten'!$CY$4:$CY$918</formula1>
+      <formula1>'Codelijsten'!$CY$4:$CY$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EE10:EE1000001">
-      <formula1>'Codelijsten'!$DA$4:$DA$66</formula1>
+      <formula1>'Codelijsten'!$DA$4:$DA$67</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EJ10:EJ1000001">
       <formula1>'Codelijsten'!$DC$4:$DC$152</formula1>
@@ -38851,28 +38917,28 @@
       <formula1>'Codelijsten'!$DG$4:$DG$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ER10:ER1000001">
-      <formula1>'Codelijsten'!$DI$4:$DI$918</formula1>
+      <formula1>'Codelijsten'!$DI$4:$DI$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EU10:EU1000001">
-      <formula1>'Codelijsten'!$DK$4:$DK$66</formula1>
+      <formula1>'Codelijsten'!$DK$4:$DK$67</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FB10:FB1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FJ10:FJ1000001">
       <formula1>'Codelijsten'!$DM$4:$DM$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FY10:FY1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GB10:GB1000001">
       <formula1>'Codelijsten'!$DO$4:$DO$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GD10:GD1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GE10:GE1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GG10:GG1000001">
       <formula1>'Codelijsten'!$DQ$4:$DQ$6</formula1>
@@ -38985,58 +39051,58 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2990</v>
+        <v>2994</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2992</v>
+        <v>2996</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>2999</v>
+        <v>3003</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3001</v>
+        <v>3005</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3003</v>
+        <v>3007</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3004</v>
+        <v>3008</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>3007</v>
+        <v>3011</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -39045,58 +39111,58 @@
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>3010</v>
+        <v>3014</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>3011</v>
+        <v>3015</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>3012</v>
+        <v>3016</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>3013</v>
+        <v>3017</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>3014</v>
+        <v>3018</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>3016</v>
+        <v>3020</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>3017</v>
+        <v>3021</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>3027</v>
+        <v>3031</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>152</v>
@@ -39152,7 +39218,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2998</v>
+        <v>3002</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -39163,7 +39229,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>3008</v>
+        <v>3012</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -39178,10 +39244,10 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>3019</v>
+        <v>3023</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -39192,20 +39258,20 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>3026</v>
+        <v>3030</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -39279,19 +39345,19 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AH3" s="4" t="s">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>3025</v>
+        <v>3029</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>3028</v>
+        <v>3032</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>3030</v>
+        <v>3034</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>143</v>
@@ -39459,58 +39525,58 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>2990</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2994</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>3008</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>3000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3003</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>3004</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>3007</v>
+        <v>3011</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>4</v>
@@ -39519,58 +39585,58 @@
         <v>6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="W6" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>3015</v>
-      </c>
       <c r="AC6" s="1" t="s">
-        <v>3016</v>
+        <v>3020</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>3017</v>
+        <v>3021</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>3027</v>
+        <v>3031</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>152</v>
@@ -39646,10 +39712,10 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7:AF1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
       <formula1>'Codelijsten'!$DU$4:$DU$8</formula1>
@@ -39661,10 +39727,10 @@
       <formula1>'Codelijsten'!$DY$4:$DY$27</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
       <formula1>'Codelijsten'!$EA$4:$EA$60</formula1>
@@ -39708,16 +39774,16 @@
         <v>1569</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3076</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1">
@@ -39729,7 +39795,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -39743,16 +39809,16 @@
         <v>1008</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3077</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -39766,16 +39832,16 @@
         <v>1569</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3076</v>
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
@@ -39788,10 +39854,10 @@
       <formula1>'Codelijsten'!$EC$4:$EC$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -13,13 +13,14 @@
     <sheet name="filtermeting" sheetId="4" r:id="rId4"/>
     <sheet name="opdracht" sheetId="5" r:id="rId5"/>
     <sheet name="filterdebietmeter" sheetId="6" r:id="rId6"/>
+    <sheet name="metadata" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8531" uniqueCount="2929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="2933">
   <si>
     <t>identificatie</t>
   </si>
@@ -8806,14 +8807,28 @@
   </si>
   <si>
     <t>filterdebietmeter</t>
+  </si>
+  <si>
+    <t>Date generated</t>
+  </si>
+  <si>
+    <t>2024-07-19 16:18:46.015700</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -8885,18 +8900,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -33313,123 +33332,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="12" width="60.7109375" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" customWidth="1"/>
-    <col min="14" max="14" width="120.7109375" customWidth="1"/>
-    <col min="15" max="15" width="122.7109375" customWidth="1"/>
-    <col min="16" max="16" width="134.7109375" customWidth="1"/>
-    <col min="17" max="17" width="86.7109375" customWidth="1"/>
-    <col min="18" max="18" width="94.7109375" customWidth="1"/>
-    <col min="19" max="19" width="106.7109375" customWidth="1"/>
-    <col min="20" max="20" width="88.7109375" customWidth="1"/>
-    <col min="21" max="21" width="84.7109375" customWidth="1"/>
-    <col min="22" max="22" width="64.7109375" customWidth="1"/>
-    <col min="23" max="23" width="40.7109375" customWidth="1"/>
-    <col min="24" max="24" width="62.7109375" customWidth="1"/>
-    <col min="25" max="26" width="80.7109375" customWidth="1"/>
-    <col min="27" max="27" width="108.7109375" customWidth="1"/>
-    <col min="28" max="28" width="140.7109375" customWidth="1"/>
-    <col min="29" max="29" width="142.7109375" customWidth="1"/>
-    <col min="30" max="30" width="154.7109375" customWidth="1"/>
-    <col min="31" max="31" width="106.7109375" customWidth="1"/>
-    <col min="32" max="32" width="114.7109375" customWidth="1"/>
-    <col min="33" max="33" width="126.7109375" customWidth="1"/>
-    <col min="34" max="34" width="108.7109375" customWidth="1"/>
-    <col min="35" max="35" width="104.7109375" customWidth="1"/>
-    <col min="36" max="36" width="60.7109375" style="2" customWidth="1"/>
-    <col min="37" max="37" width="84.7109375" customWidth="1"/>
-    <col min="38" max="39" width="102.7109375" customWidth="1"/>
-    <col min="40" max="40" width="130.7109375" customWidth="1"/>
-    <col min="41" max="41" width="162.7109375" customWidth="1"/>
-    <col min="42" max="42" width="164.7109375" customWidth="1"/>
-    <col min="43" max="43" width="176.7109375" customWidth="1"/>
-    <col min="44" max="44" width="128.7109375" customWidth="1"/>
-    <col min="45" max="45" width="136.7109375" customWidth="1"/>
-    <col min="46" max="46" width="148.7109375" customWidth="1"/>
-    <col min="47" max="47" width="130.7109375" customWidth="1"/>
-    <col min="48" max="48" width="126.7109375" customWidth="1"/>
-    <col min="49" max="49" width="82.7109375" style="2" customWidth="1"/>
-    <col min="50" max="50" width="70.7109375" customWidth="1"/>
-    <col min="51" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="116.7109375" customWidth="1"/>
-    <col min="54" max="54" width="148.7109375" customWidth="1"/>
-    <col min="55" max="55" width="150.7109375" customWidth="1"/>
-    <col min="56" max="56" width="162.7109375" customWidth="1"/>
-    <col min="57" max="57" width="114.7109375" customWidth="1"/>
-    <col min="58" max="58" width="122.7109375" customWidth="1"/>
-    <col min="59" max="59" width="134.7109375" customWidth="1"/>
-    <col min="60" max="60" width="116.7109375" customWidth="1"/>
-    <col min="61" max="61" width="112.7109375" customWidth="1"/>
-    <col min="62" max="62" width="68.7109375" style="2" customWidth="1"/>
-    <col min="63" max="63" width="82.7109375" customWidth="1"/>
-    <col min="64" max="64" width="78.7109375" customWidth="1"/>
-    <col min="65" max="65" width="12.7109375" customWidth="1"/>
-    <col min="66" max="66" width="40.7109375" style="2" customWidth="1"/>
-    <col min="67" max="67" width="30.7109375" customWidth="1"/>
-    <col min="68" max="68" width="24.7109375" style="2" customWidth="1"/>
-    <col min="69" max="69" width="60.7109375" customWidth="1"/>
-    <col min="70" max="70" width="92.7109375" customWidth="1"/>
-    <col min="71" max="71" width="94.7109375" customWidth="1"/>
-    <col min="72" max="72" width="106.7109375" customWidth="1"/>
-    <col min="73" max="73" width="58.7109375" customWidth="1"/>
-    <col min="74" max="74" width="66.7109375" customWidth="1"/>
-    <col min="75" max="75" width="78.7109375" customWidth="1"/>
-    <col min="76" max="76" width="60.7109375" customWidth="1"/>
-    <col min="77" max="77" width="56.7109375" customWidth="1"/>
-    <col min="78" max="78" width="20.7109375" style="2" customWidth="1"/>
-    <col min="79" max="79" width="62.7109375" customWidth="1"/>
-    <col min="80" max="80" width="74.7109375" customWidth="1"/>
-    <col min="81" max="81" width="64.7109375" customWidth="1"/>
-    <col min="82" max="83" width="58.7109375" customWidth="1"/>
-    <col min="84" max="84" width="70.7109375" customWidth="1"/>
-    <col min="85" max="85" width="42.7109375" customWidth="1"/>
-    <col min="86" max="86" width="64.7109375" customWidth="1"/>
-    <col min="87" max="87" width="76.7109375" customWidth="1"/>
-    <col min="88" max="88" width="74.7109375" customWidth="1"/>
-    <col min="89" max="89" width="86.7109375" customWidth="1"/>
-    <col min="90" max="90" width="66.7109375" customWidth="1"/>
-    <col min="91" max="91" width="78.7109375" customWidth="1"/>
-    <col min="92" max="92" width="18.7109375" customWidth="1"/>
-    <col min="93" max="93" width="26.7109375" customWidth="1"/>
-    <col min="94" max="94" width="30.7109375" customWidth="1"/>
-    <col min="95" max="95" width="42.7109375" customWidth="1"/>
-    <col min="96" max="96" width="50.7109375" customWidth="1"/>
-    <col min="97" max="97" width="62.7109375" customWidth="1"/>
-    <col min="98" max="98" width="44.7109375" customWidth="1"/>
-    <col min="99" max="99" width="40.7109375" customWidth="1"/>
-    <col min="100" max="100" width="30.7109375" style="2" customWidth="1"/>
-    <col min="101" max="101" width="16.7109375" customWidth="1"/>
-    <col min="102" max="102" width="12.7109375" customWidth="1"/>
-    <col min="103" max="103" width="26.7109375" customWidth="1"/>
-    <col min="104" max="104" width="44.7109375" style="2" customWidth="1"/>
-    <col min="105" max="105" width="42.7109375" customWidth="1"/>
-    <col min="106" max="106" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="32.7109375" style="4" customWidth="1"/>
+    <col min="11" max="12" width="60.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="88.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="120.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="122.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="134.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="86.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="94.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="106.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="88.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="84.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="64.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="40.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="62.7109375" style="4" customWidth="1"/>
+    <col min="25" max="26" width="80.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="108.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="140.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="142.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="154.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="106.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="114.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="126.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="108.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="104.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="60.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="84.7109375" style="4" customWidth="1"/>
+    <col min="38" max="39" width="102.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="130.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="162.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="164.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="176.7109375" style="2" customWidth="1"/>
+    <col min="44" max="44" width="128.7109375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="136.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="148.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="130.7109375" style="2" customWidth="1"/>
+    <col min="48" max="48" width="126.7109375" style="2" customWidth="1"/>
+    <col min="49" max="49" width="82.7109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="70.7109375" style="4" customWidth="1"/>
+    <col min="51" max="52" width="88.7109375" style="2" customWidth="1"/>
+    <col min="53" max="53" width="116.7109375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="148.7109375" style="2" customWidth="1"/>
+    <col min="55" max="55" width="150.7109375" style="2" customWidth="1"/>
+    <col min="56" max="56" width="162.7109375" style="2" customWidth="1"/>
+    <col min="57" max="57" width="114.7109375" style="2" customWidth="1"/>
+    <col min="58" max="58" width="122.7109375" style="2" customWidth="1"/>
+    <col min="59" max="59" width="134.7109375" style="2" customWidth="1"/>
+    <col min="60" max="60" width="116.7109375" style="2" customWidth="1"/>
+    <col min="61" max="61" width="112.7109375" style="2" customWidth="1"/>
+    <col min="62" max="62" width="68.7109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="82.7109375" style="2" customWidth="1"/>
+    <col min="64" max="64" width="78.7109375" style="4" customWidth="1"/>
+    <col min="65" max="65" width="12.7109375" style="4" customWidth="1"/>
+    <col min="66" max="66" width="40.7109375" style="3" customWidth="1"/>
+    <col min="67" max="67" width="30.7109375" style="2" customWidth="1"/>
+    <col min="68" max="68" width="24.7109375" style="3" customWidth="1"/>
+    <col min="69" max="69" width="60.7109375" style="2" customWidth="1"/>
+    <col min="70" max="70" width="92.7109375" style="2" customWidth="1"/>
+    <col min="71" max="71" width="94.7109375" style="2" customWidth="1"/>
+    <col min="72" max="72" width="106.7109375" style="2" customWidth="1"/>
+    <col min="73" max="73" width="58.7109375" style="2" customWidth="1"/>
+    <col min="74" max="74" width="66.7109375" style="2" customWidth="1"/>
+    <col min="75" max="75" width="78.7109375" style="2" customWidth="1"/>
+    <col min="76" max="76" width="60.7109375" style="2" customWidth="1"/>
+    <col min="77" max="77" width="56.7109375" style="2" customWidth="1"/>
+    <col min="78" max="78" width="20.7109375" style="3" customWidth="1"/>
+    <col min="79" max="79" width="62.7109375" style="5" customWidth="1"/>
+    <col min="80" max="80" width="74.7109375" style="4" customWidth="1"/>
+    <col min="81" max="81" width="64.7109375" style="2" customWidth="1"/>
+    <col min="82" max="83" width="58.7109375" style="4" customWidth="1"/>
+    <col min="84" max="84" width="70.7109375" style="2" customWidth="1"/>
+    <col min="85" max="85" width="42.7109375" style="2" customWidth="1"/>
+    <col min="86" max="86" width="64.7109375" style="2" customWidth="1"/>
+    <col min="87" max="87" width="76.7109375" style="4" customWidth="1"/>
+    <col min="88" max="88" width="74.7109375" style="2" customWidth="1"/>
+    <col min="89" max="89" width="86.7109375" style="4" customWidth="1"/>
+    <col min="90" max="90" width="66.7109375" style="2" customWidth="1"/>
+    <col min="91" max="91" width="78.7109375" style="4" customWidth="1"/>
+    <col min="92" max="92" width="18.7109375" style="2" customWidth="1"/>
+    <col min="93" max="93" width="26.7109375" style="2" customWidth="1"/>
+    <col min="94" max="94" width="30.7109375" style="2" customWidth="1"/>
+    <col min="95" max="95" width="42.7109375" style="2" customWidth="1"/>
+    <col min="96" max="96" width="50.7109375" style="2" customWidth="1"/>
+    <col min="97" max="97" width="62.7109375" style="2" customWidth="1"/>
+    <col min="98" max="98" width="44.7109375" style="2" customWidth="1"/>
+    <col min="99" max="99" width="40.7109375" style="2" customWidth="1"/>
+    <col min="100" max="100" width="30.7109375" style="3" customWidth="1"/>
+    <col min="101" max="101" width="16.7109375" style="2" customWidth="1"/>
+    <col min="102" max="102" width="12.7109375" style="2" customWidth="1"/>
+    <col min="103" max="103" width="26.7109375" style="2" customWidth="1"/>
+    <col min="104" max="104" width="44.7109375" style="3" customWidth="1"/>
+    <col min="105" max="105" width="42.7109375" style="5" customWidth="1"/>
+    <col min="106" max="106" width="48.7109375" style="2" customWidth="1"/>
     <col min="107" max="107" width="40.7109375" customWidth="1"/>
-    <col min="108" max="108" width="30.7109375" customWidth="1"/>
-    <col min="109" max="109" width="40.7109375" customWidth="1"/>
-    <col min="110" max="110" width="34.7109375" customWidth="1"/>
+    <col min="108" max="108" width="30.7109375" style="2" customWidth="1"/>
+    <col min="109" max="109" width="40.7109375" style="2" customWidth="1"/>
+    <col min="110" max="110" width="34.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110" hidden="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -33752,16 +33771,16 @@
       </c>
     </row>
     <row r="2" spans="1:110" hidden="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -33900,27 +33919,27 @@
       <c r="DF2" s="1"/>
     </row>
     <row r="3" spans="1:110" hidden="1">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="1" t="s">
         <v>42</v>
       </c>
@@ -33976,20 +33995,20 @@
         <v>93</v>
       </c>
       <c r="BL3" s="1"/>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
       <c r="BZ3" s="1" t="s">
         <v>111</v>
       </c>
@@ -34018,13 +34037,13 @@
         <v>137</v>
       </c>
       <c r="CM3" s="1"/>
-      <c r="CN3" s="4" t="s">
+      <c r="CN3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CO3" s="4" t="s">
+      <c r="CO3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="CP3" s="4" t="s">
+      <c r="CP3" s="7" t="s">
         <v>143</v>
       </c>
       <c r="CQ3" s="1" t="s">
@@ -34037,17 +34056,17 @@
       <c r="CV3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CY3" s="4" t="s">
+      <c r="CY3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="CZ3" s="4" t="s">
+      <c r="CZ3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="4" t="s">
+      <c r="DA3" s="7"/>
+      <c r="DB3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="DC3" s="4"/>
+      <c r="DC3" s="7"/>
       <c r="DD3" s="1" t="s">
         <v>165</v>
       </c>
@@ -34059,110 +34078,110 @@
       </c>
     </row>
     <row r="4" spans="1:110" hidden="1">
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="X4" s="4" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="X4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
       <c r="AJ4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AL4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AN4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
       <c r="AW4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AX4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AY4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BA4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
       <c r="BJ4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BK4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BQ4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
       <c r="BU4" s="1" t="s">
         <v>38</v>
       </c>
@@ -34179,10 +34198,10 @@
       <c r="CC4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CD4" s="4" t="s">
+      <c r="CD4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="CE4" s="4" t="s">
+      <c r="CE4" s="7" t="s">
         <v>111</v>
       </c>
       <c r="CF4" s="1" t="s">
@@ -34206,7 +34225,7 @@
       <c r="CM4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CQ4" s="4" t="s">
+      <c r="CQ4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="CR4" s="1" t="s">
@@ -34227,20 +34246,20 @@
       <c r="DA4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="DB4" s="4" t="s">
+      <c r="DB4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="DC4" s="4" t="s">
+      <c r="DC4" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:110" hidden="1">
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
@@ -34248,12 +34267,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
       <c r="AE5" s="1" t="s">
         <v>38</v>
       </c>
@@ -34261,12 +34280,12 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
       <c r="AR5" s="1" t="s">
         <v>38</v>
       </c>
@@ -34274,12 +34293,12 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="BA5" s="4" t="s">
+      <c r="BA5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
       <c r="BE5" s="1" t="s">
         <v>38</v>
       </c>
@@ -34287,15 +34306,15 @@
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
-      <c r="BQ5" s="4" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BR5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BS5" s="4"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="4" t="s">
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="BV5" s="1" t="s">
@@ -34312,15 +34331,15 @@
       </c>
     </row>
     <row r="6" spans="1:110" hidden="1">
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -34335,15 +34354,15 @@
       <c r="U6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4" t="s">
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AF6" s="1" t="s">
@@ -34358,15 +34377,15 @@
       <c r="AI6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AN6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AO6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4" t="s">
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AS6" s="1" t="s">
@@ -34381,15 +34400,15 @@
       <c r="AV6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BA6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BB6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4" t="s">
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="BF6" s="1" t="s">
@@ -34404,7 +34423,7 @@
       <c r="BI6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BR6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="BS6" s="1" t="s">
@@ -34415,7 +34434,7 @@
       </c>
     </row>
     <row r="7" spans="1:110" hidden="1">
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -34424,7 +34443,7 @@
       <c r="P7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="AC7" s="1" t="s">
@@ -34433,7 +34452,7 @@
       <c r="AD7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AO7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="AP7" s="1" t="s">
@@ -34442,7 +34461,7 @@
       <c r="AQ7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BB7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="BC7" s="1" t="s">
@@ -34453,16 +34472,16 @@
       </c>
     </row>
     <row r="8" spans="1:110">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -34946,78 +34965,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="10" width="50.7109375" customWidth="1"/>
-    <col min="11" max="11" width="72.7109375" customWidth="1"/>
-    <col min="12" max="12" width="60.7109375" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="50.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="72.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="38.7109375" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="84.7109375" customWidth="1"/>
-    <col min="20" max="20" width="80.7109375" customWidth="1"/>
-    <col min="21" max="21" width="70.7109375" customWidth="1"/>
-    <col min="22" max="22" width="54.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="74.7109375" customWidth="1"/>
-    <col min="25" max="25" width="56.7109375" customWidth="1"/>
-    <col min="26" max="26" width="52.7109375" customWidth="1"/>
-    <col min="27" max="28" width="40.7109375" customWidth="1"/>
-    <col min="29" max="29" width="60.7109375" customWidth="1"/>
-    <col min="30" max="30" width="52.7109375" customWidth="1"/>
-    <col min="31" max="32" width="62.7109375" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" customWidth="1"/>
-    <col min="34" max="34" width="38.7109375" customWidth="1"/>
-    <col min="35" max="36" width="26.7109375" customWidth="1"/>
-    <col min="37" max="37" width="38.7109375" customWidth="1"/>
-    <col min="38" max="38" width="30.7109375" customWidth="1"/>
-    <col min="39" max="39" width="42.7109375" customWidth="1"/>
-    <col min="40" max="40" width="50.7109375" customWidth="1"/>
-    <col min="41" max="41" width="62.7109375" customWidth="1"/>
-    <col min="42" max="42" width="44.7109375" customWidth="1"/>
-    <col min="43" max="43" width="40.7109375" customWidth="1"/>
-    <col min="44" max="44" width="30.7109375" style="2" customWidth="1"/>
-    <col min="45" max="45" width="16.7109375" customWidth="1"/>
-    <col min="46" max="46" width="12.7109375" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" customWidth="1"/>
-    <col min="48" max="48" width="44.7109375" style="2" customWidth="1"/>
-    <col min="49" max="49" width="42.7109375" customWidth="1"/>
-    <col min="50" max="50" width="48.7109375" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="68.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="84.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="80.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="70.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="54.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="62.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="74.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="56.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="52.7109375" style="2" customWidth="1"/>
+    <col min="27" max="28" width="40.7109375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="60.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="52.7109375" style="2" customWidth="1"/>
+    <col min="31" max="32" width="62.7109375" style="5" customWidth="1"/>
+    <col min="33" max="33" width="30.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="38.7109375" style="2" customWidth="1"/>
+    <col min="35" max="36" width="26.7109375" style="4" customWidth="1"/>
+    <col min="37" max="37" width="38.7109375" style="2" customWidth="1"/>
+    <col min="38" max="38" width="30.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="42.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="50.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="62.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="44.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="40.7109375" style="2" customWidth="1"/>
+    <col min="44" max="44" width="30.7109375" style="3" customWidth="1"/>
+    <col min="45" max="45" width="16.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" style="2" customWidth="1"/>
+    <col min="48" max="48" width="44.7109375" style="3" customWidth="1"/>
+    <col min="49" max="49" width="42.7109375" style="5" customWidth="1"/>
+    <col min="50" max="50" width="48.7109375" style="2" customWidth="1"/>
     <col min="51" max="51" width="40.7109375" customWidth="1"/>
-    <col min="52" max="52" width="30.7109375" customWidth="1"/>
-    <col min="53" max="53" width="40.7109375" customWidth="1"/>
-    <col min="54" max="54" width="34.7109375" customWidth="1"/>
+    <col min="52" max="52" width="30.7109375" style="2" customWidth="1"/>
+    <col min="53" max="53" width="40.7109375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="34.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" hidden="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>1002</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -35163,30 +35182,30 @@
       </c>
     </row>
     <row r="2" spans="1:54" hidden="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
@@ -35255,10 +35274,10 @@
       <c r="BB2" s="1"/>
     </row>
     <row r="3" spans="1:54" hidden="1">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>1003</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -35276,7 +35295,7 @@
       <c r="L3" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -35309,22 +35328,22 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="7" t="s">
         <v>143</v>
       </c>
       <c r="AM3" s="1" t="s">
@@ -35337,17 +35356,17 @@
       <c r="AR3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4" t="s">
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AY3" s="4"/>
+      <c r="AY3" s="7"/>
       <c r="AZ3" s="1" t="s">
         <v>165</v>
       </c>
@@ -35359,7 +35378,7 @@
       </c>
     </row>
     <row r="4" spans="1:54" hidden="1">
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
@@ -35374,13 +35393,13 @@
       <c r="Z4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="AD4" s="1" t="s">
@@ -35392,7 +35411,7 @@
       <c r="AF4" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AN4" s="1" t="s">
@@ -35413,33 +35432,33 @@
       <c r="AW4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AX4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AY4" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>1002</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -35688,197 +35707,198 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" customWidth="1"/>
-    <col min="9" max="9" width="72.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="92.7109375" customWidth="1"/>
-    <col min="12" max="12" width="74.7109375" customWidth="1"/>
-    <col min="13" max="13" width="70.7109375" customWidth="1"/>
-    <col min="14" max="14" width="60.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="50.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="54.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="58.7109375" customWidth="1"/>
-    <col min="20" max="20" width="68.7109375" customWidth="1"/>
-    <col min="21" max="22" width="64.7109375" customWidth="1"/>
-    <col min="23" max="23" width="72.7109375" customWidth="1"/>
-    <col min="24" max="24" width="84.7109375" customWidth="1"/>
-    <col min="25" max="25" width="66.7109375" customWidth="1"/>
-    <col min="26" max="26" width="62.7109375" customWidth="1"/>
-    <col min="27" max="27" width="48.7109375" customWidth="1"/>
-    <col min="28" max="28" width="70.7109375" customWidth="1"/>
-    <col min="29" max="29" width="62.7109375" customWidth="1"/>
-    <col min="30" max="30" width="48.7109375" customWidth="1"/>
-    <col min="31" max="31" width="70.7109375" customWidth="1"/>
-    <col min="32" max="32" width="82.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="102.7109375" customWidth="1"/>
-    <col min="35" max="35" width="84.7109375" customWidth="1"/>
-    <col min="36" max="36" width="80.7109375" customWidth="1"/>
-    <col min="37" max="37" width="70.7109375" style="2" customWidth="1"/>
-    <col min="38" max="38" width="50.7109375" style="2" customWidth="1"/>
-    <col min="39" max="39" width="68.7109375" customWidth="1"/>
-    <col min="40" max="40" width="56.7109375" customWidth="1"/>
-    <col min="41" max="41" width="64.7109375" customWidth="1"/>
-    <col min="42" max="42" width="72.7109375" customWidth="1"/>
-    <col min="43" max="43" width="84.7109375" customWidth="1"/>
-    <col min="44" max="44" width="66.7109375" customWidth="1"/>
-    <col min="45" max="45" width="62.7109375" customWidth="1"/>
-    <col min="46" max="46" width="48.7109375" customWidth="1"/>
-    <col min="47" max="47" width="70.7109375" customWidth="1"/>
-    <col min="48" max="48" width="82.7109375" customWidth="1"/>
-    <col min="49" max="49" width="90.7109375" customWidth="1"/>
-    <col min="50" max="50" width="102.7109375" customWidth="1"/>
-    <col min="51" max="51" width="84.7109375" customWidth="1"/>
-    <col min="52" max="52" width="80.7109375" customWidth="1"/>
-    <col min="53" max="53" width="70.7109375" style="2" customWidth="1"/>
-    <col min="54" max="54" width="66.7109375" style="2" customWidth="1"/>
-    <col min="55" max="55" width="70.7109375" customWidth="1"/>
-    <col min="56" max="56" width="72.7109375" customWidth="1"/>
-    <col min="57" max="57" width="106.7109375" customWidth="1"/>
-    <col min="58" max="58" width="74.7109375" customWidth="1"/>
-    <col min="59" max="59" width="84.7109375" customWidth="1"/>
-    <col min="60" max="61" width="80.7109375" customWidth="1"/>
-    <col min="62" max="62" width="88.7109375" customWidth="1"/>
-    <col min="63" max="63" width="100.7109375" customWidth="1"/>
-    <col min="64" max="64" width="82.7109375" customWidth="1"/>
-    <col min="65" max="65" width="78.7109375" customWidth="1"/>
-    <col min="66" max="66" width="64.7109375" customWidth="1"/>
-    <col min="67" max="67" width="86.7109375" customWidth="1"/>
-    <col min="68" max="68" width="78.7109375" customWidth="1"/>
-    <col min="69" max="69" width="64.7109375" customWidth="1"/>
-    <col min="70" max="70" width="86.7109375" customWidth="1"/>
-    <col min="71" max="71" width="98.7109375" customWidth="1"/>
-    <col min="72" max="72" width="106.7109375" customWidth="1"/>
-    <col min="73" max="73" width="118.7109375" customWidth="1"/>
-    <col min="74" max="74" width="100.7109375" customWidth="1"/>
-    <col min="75" max="75" width="96.7109375" customWidth="1"/>
-    <col min="76" max="76" width="86.7109375" style="2" customWidth="1"/>
-    <col min="77" max="77" width="16.7109375" customWidth="1"/>
-    <col min="78" max="80" width="14.7109375" customWidth="1"/>
-    <col min="81" max="81" width="52.7109375" customWidth="1"/>
-    <col min="82" max="82" width="70.7109375" customWidth="1"/>
-    <col min="83" max="83" width="62.7109375" customWidth="1"/>
-    <col min="84" max="84" width="38.7109375" customWidth="1"/>
-    <col min="85" max="85" width="104.7109375" customWidth="1"/>
-    <col min="86" max="86" width="136.7109375" customWidth="1"/>
-    <col min="87" max="87" width="138.7109375" customWidth="1"/>
-    <col min="88" max="88" width="150.7109375" customWidth="1"/>
-    <col min="89" max="89" width="102.7109375" customWidth="1"/>
-    <col min="90" max="90" width="110.7109375" customWidth="1"/>
-    <col min="91" max="91" width="122.7109375" customWidth="1"/>
-    <col min="92" max="92" width="104.7109375" customWidth="1"/>
-    <col min="93" max="93" width="100.7109375" customWidth="1"/>
-    <col min="94" max="94" width="98.7109375" customWidth="1"/>
-    <col min="95" max="95" width="106.7109375" customWidth="1"/>
-    <col min="96" max="96" width="118.7109375" customWidth="1"/>
-    <col min="97" max="97" width="100.7109375" customWidth="1"/>
-    <col min="98" max="98" width="96.7109375" customWidth="1"/>
-    <col min="99" max="99" width="60.7109375" style="2" customWidth="1"/>
-    <col min="100" max="100" width="58.7109375" customWidth="1"/>
-    <col min="101" max="101" width="104.7109375" customWidth="1"/>
-    <col min="102" max="102" width="136.7109375" customWidth="1"/>
-    <col min="103" max="103" width="138.7109375" customWidth="1"/>
-    <col min="104" max="104" width="150.7109375" customWidth="1"/>
-    <col min="105" max="105" width="102.7109375" customWidth="1"/>
-    <col min="106" max="106" width="110.7109375" customWidth="1"/>
-    <col min="107" max="107" width="122.7109375" customWidth="1"/>
-    <col min="108" max="108" width="104.7109375" customWidth="1"/>
-    <col min="109" max="109" width="100.7109375" customWidth="1"/>
-    <col min="110" max="110" width="98.7109375" customWidth="1"/>
-    <col min="111" max="111" width="106.7109375" customWidth="1"/>
-    <col min="112" max="112" width="118.7109375" customWidth="1"/>
-    <col min="113" max="113" width="100.7109375" customWidth="1"/>
-    <col min="114" max="114" width="96.7109375" customWidth="1"/>
-    <col min="115" max="115" width="60.7109375" style="2" customWidth="1"/>
-    <col min="116" max="116" width="58.7109375" customWidth="1"/>
-    <col min="117" max="117" width="56.7109375" customWidth="1"/>
-    <col min="118" max="118" width="68.7109375" customWidth="1"/>
-    <col min="119" max="119" width="76.7109375" customWidth="1"/>
-    <col min="120" max="120" width="88.7109375" customWidth="1"/>
-    <col min="121" max="121" width="70.7109375" customWidth="1"/>
-    <col min="122" max="122" width="66.7109375" customWidth="1"/>
-    <col min="123" max="123" width="56.7109375" style="2" customWidth="1"/>
-    <col min="124" max="124" width="52.7109375" customWidth="1"/>
-    <col min="125" max="125" width="70.7109375" style="2" customWidth="1"/>
-    <col min="126" max="126" width="68.7109375" customWidth="1"/>
-    <col min="127" max="127" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="72.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="80.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="92.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="74.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="70.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="60.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="50.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="54.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="56.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="90.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="58.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="68.7109375" style="2" customWidth="1"/>
+    <col min="21" max="22" width="64.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="72.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="84.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="66.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="62.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="48.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="70.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="62.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="48.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="70.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="82.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="90.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="102.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="84.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="80.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="70.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="50.7109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="68.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="56.7109375" style="8" customWidth="1"/>
+    <col min="41" max="41" width="64.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="72.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="84.7109375" style="2" customWidth="1"/>
+    <col min="44" max="44" width="66.7109375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="62.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="48.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="70.7109375" style="2" customWidth="1"/>
+    <col min="48" max="48" width="82.7109375" style="2" customWidth="1"/>
+    <col min="49" max="49" width="90.7109375" style="2" customWidth="1"/>
+    <col min="50" max="50" width="102.7109375" style="2" customWidth="1"/>
+    <col min="51" max="51" width="84.7109375" style="2" customWidth="1"/>
+    <col min="52" max="52" width="80.7109375" style="2" customWidth="1"/>
+    <col min="53" max="53" width="70.7109375" style="3" customWidth="1"/>
+    <col min="54" max="54" width="66.7109375" style="3" customWidth="1"/>
+    <col min="55" max="55" width="70.7109375" style="2" customWidth="1"/>
+    <col min="56" max="56" width="72.7109375" style="8" customWidth="1"/>
+    <col min="57" max="57" width="106.7109375" style="4" customWidth="1"/>
+    <col min="58" max="58" width="74.7109375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="84.7109375" style="2" customWidth="1"/>
+    <col min="60" max="61" width="80.7109375" style="2" customWidth="1"/>
+    <col min="62" max="62" width="88.7109375" style="2" customWidth="1"/>
+    <col min="63" max="63" width="100.7109375" style="2" customWidth="1"/>
+    <col min="64" max="64" width="82.7109375" style="2" customWidth="1"/>
+    <col min="65" max="65" width="78.7109375" style="2" customWidth="1"/>
+    <col min="66" max="66" width="64.7109375" style="2" customWidth="1"/>
+    <col min="67" max="67" width="86.7109375" style="2" customWidth="1"/>
+    <col min="68" max="68" width="78.7109375" style="2" customWidth="1"/>
+    <col min="69" max="69" width="64.7109375" style="2" customWidth="1"/>
+    <col min="70" max="70" width="86.7109375" style="2" customWidth="1"/>
+    <col min="71" max="71" width="98.7109375" style="2" customWidth="1"/>
+    <col min="72" max="72" width="106.7109375" style="2" customWidth="1"/>
+    <col min="73" max="73" width="118.7109375" style="2" customWidth="1"/>
+    <col min="74" max="74" width="100.7109375" style="2" customWidth="1"/>
+    <col min="75" max="75" width="96.7109375" style="2" customWidth="1"/>
+    <col min="76" max="76" width="86.7109375" style="3" customWidth="1"/>
+    <col min="77" max="77" width="16.7109375" style="5" customWidth="1"/>
+    <col min="78" max="80" width="14.7109375" style="4" customWidth="1"/>
+    <col min="81" max="81" width="52.7109375" style="2" customWidth="1"/>
+    <col min="82" max="82" width="70.7109375" style="2" customWidth="1"/>
+    <col min="83" max="83" width="62.7109375" style="2" customWidth="1"/>
+    <col min="84" max="84" width="38.7109375" style="4" customWidth="1"/>
+    <col min="85" max="85" width="104.7109375" style="2" customWidth="1"/>
+    <col min="86" max="86" width="136.7109375" style="2" customWidth="1"/>
+    <col min="87" max="87" width="138.7109375" style="2" customWidth="1"/>
+    <col min="88" max="88" width="150.7109375" style="2" customWidth="1"/>
+    <col min="89" max="89" width="102.7109375" style="2" customWidth="1"/>
+    <col min="90" max="90" width="110.7109375" style="2" customWidth="1"/>
+    <col min="91" max="91" width="122.7109375" style="2" customWidth="1"/>
+    <col min="92" max="92" width="104.7109375" style="2" customWidth="1"/>
+    <col min="93" max="93" width="100.7109375" style="2" customWidth="1"/>
+    <col min="94" max="94" width="98.7109375" style="2" customWidth="1"/>
+    <col min="95" max="95" width="106.7109375" style="2" customWidth="1"/>
+    <col min="96" max="96" width="118.7109375" style="2" customWidth="1"/>
+    <col min="97" max="97" width="100.7109375" style="2" customWidth="1"/>
+    <col min="98" max="98" width="96.7109375" style="2" customWidth="1"/>
+    <col min="99" max="99" width="60.7109375" style="3" customWidth="1"/>
+    <col min="100" max="100" width="58.7109375" style="8" customWidth="1"/>
+    <col min="101" max="101" width="104.7109375" style="2" customWidth="1"/>
+    <col min="102" max="102" width="136.7109375" style="2" customWidth="1"/>
+    <col min="103" max="103" width="138.7109375" style="2" customWidth="1"/>
+    <col min="104" max="104" width="150.7109375" style="2" customWidth="1"/>
+    <col min="105" max="105" width="102.7109375" style="2" customWidth="1"/>
+    <col min="106" max="106" width="110.7109375" style="2" customWidth="1"/>
+    <col min="107" max="107" width="122.7109375" style="2" customWidth="1"/>
+    <col min="108" max="108" width="104.7109375" style="2" customWidth="1"/>
+    <col min="109" max="109" width="100.7109375" style="2" customWidth="1"/>
+    <col min="110" max="110" width="98.7109375" style="2" customWidth="1"/>
+    <col min="111" max="111" width="106.7109375" style="2" customWidth="1"/>
+    <col min="112" max="112" width="118.7109375" style="2" customWidth="1"/>
+    <col min="113" max="113" width="100.7109375" style="2" customWidth="1"/>
+    <col min="114" max="114" width="96.7109375" style="2" customWidth="1"/>
+    <col min="115" max="115" width="60.7109375" style="3" customWidth="1"/>
+    <col min="116" max="116" width="58.7109375" style="8" customWidth="1"/>
+    <col min="117" max="117" width="56.7109375" style="2" customWidth="1"/>
+    <col min="118" max="118" width="68.7109375" style="2" customWidth="1"/>
+    <col min="119" max="119" width="76.7109375" style="2" customWidth="1"/>
+    <col min="120" max="120" width="88.7109375" style="2" customWidth="1"/>
+    <col min="121" max="121" width="70.7109375" style="2" customWidth="1"/>
+    <col min="122" max="122" width="66.7109375" style="2" customWidth="1"/>
+    <col min="123" max="123" width="56.7109375" style="3" customWidth="1"/>
+    <col min="124" max="124" width="52.7109375" style="2" customWidth="1"/>
+    <col min="125" max="125" width="70.7109375" style="3" customWidth="1"/>
+    <col min="126" max="126" width="68.7109375" style="5" customWidth="1"/>
+    <col min="127" max="127" width="74.7109375" style="2" customWidth="1"/>
     <col min="128" max="128" width="66.7109375" customWidth="1"/>
-    <col min="129" max="129" width="56.7109375" customWidth="1"/>
-    <col min="130" max="130" width="66.7109375" customWidth="1"/>
-    <col min="131" max="131" width="60.7109375" customWidth="1"/>
-    <col min="132" max="132" width="66.7109375" customWidth="1"/>
-    <col min="133" max="133" width="96.7109375" customWidth="1"/>
-    <col min="134" max="134" width="88.7109375" customWidth="1"/>
-    <col min="135" max="135" width="62.7109375" customWidth="1"/>
-    <col min="136" max="136" width="76.7109375" customWidth="1"/>
-    <col min="137" max="137" width="80.7109375" customWidth="1"/>
-    <col min="138" max="139" width="68.7109375" customWidth="1"/>
-    <col min="140" max="140" width="62.7109375" customWidth="1"/>
-    <col min="141" max="141" width="76.7109375" customWidth="1"/>
-    <col min="142" max="142" width="78.7109375" customWidth="1"/>
-    <col min="143" max="143" width="66.7109375" customWidth="1"/>
-    <col min="144" max="144" width="80.7109375" customWidth="1"/>
-    <col min="145" max="145" width="104.7109375" customWidth="1"/>
-    <col min="146" max="147" width="82.7109375" customWidth="1"/>
-    <col min="148" max="148" width="106.7109375" customWidth="1"/>
-    <col min="149" max="149" width="136.7109375" customWidth="1"/>
-    <col min="150" max="150" width="128.7109375" customWidth="1"/>
-    <col min="151" max="151" width="102.7109375" customWidth="1"/>
-    <col min="152" max="152" width="78.7109375" customWidth="1"/>
-    <col min="153" max="153" width="90.7109375" customWidth="1"/>
-    <col min="154" max="154" width="98.7109375" customWidth="1"/>
-    <col min="155" max="155" width="110.7109375" customWidth="1"/>
-    <col min="156" max="156" width="92.7109375" customWidth="1"/>
-    <col min="157" max="157" width="88.7109375" customWidth="1"/>
-    <col min="158" max="158" width="78.7109375" style="2" customWidth="1"/>
-    <col min="159" max="159" width="64.7109375" customWidth="1"/>
-    <col min="160" max="160" width="92.7109375" customWidth="1"/>
-    <col min="161" max="161" width="84.7109375" customWidth="1"/>
-    <col min="162" max="163" width="68.7109375" customWidth="1"/>
-    <col min="164" max="164" width="64.7109375" customWidth="1"/>
-    <col min="165" max="165" width="42.7109375" customWidth="1"/>
-    <col min="166" max="166" width="44.7109375" customWidth="1"/>
-    <col min="167" max="167" width="104.7109375" customWidth="1"/>
-    <col min="168" max="168" width="136.7109375" customWidth="1"/>
-    <col min="169" max="169" width="138.7109375" customWidth="1"/>
-    <col min="170" max="170" width="150.7109375" customWidth="1"/>
-    <col min="171" max="171" width="102.7109375" customWidth="1"/>
-    <col min="172" max="172" width="110.7109375" customWidth="1"/>
-    <col min="173" max="173" width="122.7109375" customWidth="1"/>
-    <col min="174" max="174" width="104.7109375" customWidth="1"/>
-    <col min="175" max="175" width="100.7109375" customWidth="1"/>
-    <col min="176" max="176" width="98.7109375" customWidth="1"/>
-    <col min="177" max="177" width="106.7109375" customWidth="1"/>
-    <col min="178" max="178" width="118.7109375" customWidth="1"/>
-    <col min="179" max="179" width="100.7109375" customWidth="1"/>
-    <col min="180" max="180" width="96.7109375" customWidth="1"/>
-    <col min="181" max="181" width="60.7109375" style="2" customWidth="1"/>
-    <col min="182" max="183" width="58.7109375" customWidth="1"/>
-    <col min="184" max="184" width="66.7109375" customWidth="1"/>
-    <col min="185" max="185" width="34.7109375" customWidth="1"/>
-    <col min="186" max="187" width="34.7109375" style="2" customWidth="1"/>
-    <col min="188" max="188" width="36.7109375" customWidth="1"/>
-    <col min="189" max="189" width="54.7109375" customWidth="1"/>
-    <col min="190" max="191" width="32.7109375" customWidth="1"/>
+    <col min="129" max="129" width="56.7109375" style="2" customWidth="1"/>
+    <col min="130" max="130" width="66.7109375" style="2" customWidth="1"/>
+    <col min="131" max="131" width="60.7109375" style="2" customWidth="1"/>
+    <col min="132" max="132" width="66.7109375" style="2" customWidth="1"/>
+    <col min="133" max="133" width="96.7109375" style="4" customWidth="1"/>
+    <col min="134" max="134" width="88.7109375" style="2" customWidth="1"/>
+    <col min="135" max="135" width="62.7109375" style="2" customWidth="1"/>
+    <col min="136" max="136" width="76.7109375" style="2" customWidth="1"/>
+    <col min="137" max="137" width="80.7109375" style="2" customWidth="1"/>
+    <col min="138" max="139" width="68.7109375" style="4" customWidth="1"/>
+    <col min="140" max="140" width="62.7109375" style="2" customWidth="1"/>
+    <col min="141" max="141" width="76.7109375" style="2" customWidth="1"/>
+    <col min="142" max="142" width="78.7109375" style="2" customWidth="1"/>
+    <col min="143" max="143" width="66.7109375" style="2" customWidth="1"/>
+    <col min="144" max="144" width="80.7109375" style="5" customWidth="1"/>
+    <col min="145" max="145" width="104.7109375" style="4" customWidth="1"/>
+    <col min="146" max="147" width="82.7109375" style="4" customWidth="1"/>
+    <col min="148" max="148" width="106.7109375" style="2" customWidth="1"/>
+    <col min="149" max="149" width="136.7109375" style="4" customWidth="1"/>
+    <col min="150" max="150" width="128.7109375" style="2" customWidth="1"/>
+    <col min="151" max="151" width="102.7109375" style="2" customWidth="1"/>
+    <col min="152" max="152" width="78.7109375" style="2" customWidth="1"/>
+    <col min="153" max="153" width="90.7109375" style="2" customWidth="1"/>
+    <col min="154" max="154" width="98.7109375" style="2" customWidth="1"/>
+    <col min="155" max="155" width="110.7109375" style="2" customWidth="1"/>
+    <col min="156" max="156" width="92.7109375" style="2" customWidth="1"/>
+    <col min="157" max="157" width="88.7109375" style="2" customWidth="1"/>
+    <col min="158" max="158" width="78.7109375" style="3" customWidth="1"/>
+    <col min="159" max="159" width="64.7109375" style="2" customWidth="1"/>
+    <col min="160" max="160" width="92.7109375" style="2" customWidth="1"/>
+    <col min="161" max="161" width="84.7109375" style="2" customWidth="1"/>
+    <col min="162" max="163" width="68.7109375" style="4" customWidth="1"/>
+    <col min="164" max="164" width="64.7109375" style="5" customWidth="1"/>
+    <col min="165" max="165" width="42.7109375" style="2" customWidth="1"/>
+    <col min="166" max="166" width="44.7109375" style="2" customWidth="1"/>
+    <col min="167" max="167" width="104.7109375" style="2" customWidth="1"/>
+    <col min="168" max="168" width="136.7109375" style="2" customWidth="1"/>
+    <col min="169" max="169" width="138.7109375" style="2" customWidth="1"/>
+    <col min="170" max="170" width="150.7109375" style="2" customWidth="1"/>
+    <col min="171" max="171" width="102.7109375" style="2" customWidth="1"/>
+    <col min="172" max="172" width="110.7109375" style="2" customWidth="1"/>
+    <col min="173" max="173" width="122.7109375" style="2" customWidth="1"/>
+    <col min="174" max="174" width="104.7109375" style="2" customWidth="1"/>
+    <col min="175" max="175" width="100.7109375" style="2" customWidth="1"/>
+    <col min="176" max="176" width="98.7109375" style="2" customWidth="1"/>
+    <col min="177" max="177" width="106.7109375" style="2" customWidth="1"/>
+    <col min="178" max="178" width="118.7109375" style="2" customWidth="1"/>
+    <col min="179" max="179" width="100.7109375" style="2" customWidth="1"/>
+    <col min="180" max="180" width="96.7109375" style="2" customWidth="1"/>
+    <col min="181" max="181" width="60.7109375" style="3" customWidth="1"/>
+    <col min="182" max="182" width="58.7109375" style="8" customWidth="1"/>
+    <col min="183" max="183" width="58.7109375" style="2" customWidth="1"/>
+    <col min="184" max="184" width="66.7109375" style="2" customWidth="1"/>
+    <col min="185" max="185" width="34.7109375" style="2" customWidth="1"/>
+    <col min="186" max="187" width="34.7109375" style="3" customWidth="1"/>
+    <col min="188" max="188" width="36.7109375" style="4" customWidth="1"/>
+    <col min="189" max="189" width="54.7109375" style="2" customWidth="1"/>
+    <col min="190" max="191" width="32.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:191" hidden="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1422</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -36447,13 +36467,13 @@
       </c>
     </row>
     <row r="2" spans="1:191" hidden="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>1437</v>
       </c>
@@ -36654,19 +36674,19 @@
       <c r="GI2" s="1"/>
     </row>
     <row r="3" spans="1:191" hidden="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>1427</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -36749,7 +36769,7 @@
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
-      <c r="BY3" s="4" t="s">
+      <c r="BY3" s="7" t="s">
         <v>158</v>
       </c>
       <c r="BZ3" s="1" t="s">
@@ -36761,7 +36781,7 @@
       <c r="CB3" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CC3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="CD3" s="1" t="s">
@@ -36894,13 +36914,13 @@
       <c r="GC3" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="GD3" s="4" t="s">
+      <c r="GD3" s="7" t="s">
         <v>1656</v>
       </c>
-      <c r="GE3" s="4" t="s">
+      <c r="GE3" s="7" t="s">
         <v>1658</v>
       </c>
-      <c r="GF3" s="4" t="s">
+      <c r="GF3" s="7" t="s">
         <v>1660</v>
       </c>
       <c r="GG3" s="1" t="s">
@@ -36914,7 +36934,7 @@
       </c>
     </row>
     <row r="4" spans="1:191" hidden="1">
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -36927,10 +36947,10 @@
       <c r="N4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>1429</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -36976,10 +36996,10 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="4" t="s">
+      <c r="AL4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="7" t="s">
         <v>1472</v>
       </c>
       <c r="AN4" s="1" t="s">
@@ -37004,10 +37024,10 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="4" t="s">
+      <c r="BB4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BC4" s="7" t="s">
         <v>1429</v>
       </c>
       <c r="BD4" s="1" t="s">
@@ -37053,57 +37073,57 @@
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
-      <c r="CD4" s="4" t="s">
+      <c r="CD4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="CE4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CG4" s="4" t="s">
+      <c r="CG4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="7"/>
+      <c r="CM4" s="7"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="CQ4" s="7"/>
+      <c r="CR4" s="7"/>
+      <c r="CS4" s="7"/>
+      <c r="CT4" s="7"/>
       <c r="CU4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="CW4" s="4" t="s">
+      <c r="CW4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="4"/>
-      <c r="DD4" s="4"/>
-      <c r="DE4" s="4"/>
-      <c r="DF4" s="4"/>
-      <c r="DG4" s="4"/>
-      <c r="DH4" s="4"/>
-      <c r="DI4" s="4"/>
-      <c r="DJ4" s="4"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="7"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="7"/>
+      <c r="DC4" s="7"/>
+      <c r="DD4" s="7"/>
+      <c r="DE4" s="7"/>
+      <c r="DF4" s="7"/>
+      <c r="DG4" s="7"/>
+      <c r="DH4" s="7"/>
+      <c r="DI4" s="7"/>
+      <c r="DJ4" s="7"/>
       <c r="DK4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="DL4" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="DM4" s="4" t="s">
+      <c r="DM4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="DN4" s="1" t="s">
@@ -37116,17 +37136,17 @@
       <c r="DS4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DT4" s="4" t="s">
+      <c r="DT4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DU4" s="4" t="s">
+      <c r="DU4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="DV4" s="4"/>
-      <c r="DW4" s="4" t="s">
+      <c r="DV4" s="7"/>
+      <c r="DW4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="DX4" s="4"/>
+      <c r="DX4" s="7"/>
       <c r="DY4" s="1" t="s">
         <v>165</v>
       </c>
@@ -37136,14 +37156,14 @@
       <c r="EA4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EB4" s="4" t="s">
+      <c r="EB4" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="EC4" s="4" t="s">
+      <c r="EC4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="ED4" s="4"/>
-      <c r="EE4" s="4" t="s">
+      <c r="ED4" s="7"/>
+      <c r="EE4" s="7" t="s">
         <v>1583</v>
       </c>
       <c r="EF4" s="1" t="s">
@@ -37204,37 +37224,37 @@
       <c r="FG4" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="FK4" s="4" t="s">
+      <c r="FK4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="FL4" s="4"/>
-      <c r="FM4" s="4"/>
-      <c r="FN4" s="4"/>
-      <c r="FO4" s="4"/>
-      <c r="FP4" s="4"/>
-      <c r="FQ4" s="4"/>
-      <c r="FR4" s="4"/>
-      <c r="FS4" s="4"/>
-      <c r="FT4" s="4"/>
-      <c r="FU4" s="4"/>
-      <c r="FV4" s="4"/>
-      <c r="FW4" s="4"/>
-      <c r="FX4" s="4"/>
+      <c r="FL4" s="7"/>
+      <c r="FM4" s="7"/>
+      <c r="FN4" s="7"/>
+      <c r="FO4" s="7"/>
+      <c r="FP4" s="7"/>
+      <c r="FQ4" s="7"/>
+      <c r="FR4" s="7"/>
+      <c r="FS4" s="7"/>
+      <c r="FT4" s="7"/>
+      <c r="FU4" s="7"/>
+      <c r="FV4" s="7"/>
+      <c r="FW4" s="7"/>
+      <c r="FX4" s="7"/>
       <c r="FY4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="FZ4" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="GA4" s="4" t="s">
+      <c r="GA4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="GB4" s="4" t="s">
+      <c r="GB4" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:191" hidden="1">
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -37249,7 +37269,7 @@
       <c r="M5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -37264,7 +37284,7 @@
       <c r="Z5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="7" t="s">
         <v>143</v>
       </c>
       <c r="AF5" s="1" t="s">
@@ -37277,7 +37297,7 @@
       <c r="AK5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AP5" s="1" t="s">
@@ -37292,7 +37312,7 @@
       <c r="AS5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AU5" s="7" t="s">
         <v>143</v>
       </c>
       <c r="AV5" s="1" t="s">
@@ -37305,7 +37325,7 @@
       <c r="BA5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="BI5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="BJ5" s="1" t="s">
@@ -37320,7 +37340,7 @@
       <c r="BM5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BR5" s="7" t="s">
         <v>143</v>
       </c>
       <c r="BS5" s="1" t="s">
@@ -37333,43 +37353,43 @@
       <c r="BX5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CG5" s="4" t="s">
+      <c r="CG5" s="7" t="s">
         <v>1533</v>
       </c>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="4"/>
-      <c r="CM5" s="4"/>
-      <c r="CN5" s="4"/>
-      <c r="CO5" s="4"/>
-      <c r="CP5" s="4" t="s">
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="7"/>
+      <c r="CJ5" s="7"/>
+      <c r="CK5" s="7"/>
+      <c r="CL5" s="7"/>
+      <c r="CM5" s="7"/>
+      <c r="CN5" s="7"/>
+      <c r="CO5" s="7"/>
+      <c r="CP5" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="CQ5" s="4"/>
-      <c r="CR5" s="4"/>
-      <c r="CS5" s="4"/>
-      <c r="CT5" s="4"/>
-      <c r="CW5" s="4" t="s">
+      <c r="CQ5" s="7"/>
+      <c r="CR5" s="7"/>
+      <c r="CS5" s="7"/>
+      <c r="CT5" s="7"/>
+      <c r="CW5" s="7" t="s">
         <v>1533</v>
       </c>
-      <c r="CX5" s="4"/>
-      <c r="CY5" s="4"/>
-      <c r="CZ5" s="4"/>
-      <c r="DA5" s="4"/>
-      <c r="DB5" s="4"/>
-      <c r="DC5" s="4"/>
-      <c r="DD5" s="4"/>
-      <c r="DE5" s="4"/>
-      <c r="DF5" s="4" t="s">
+      <c r="CX5" s="7"/>
+      <c r="CY5" s="7"/>
+      <c r="CZ5" s="7"/>
+      <c r="DA5" s="7"/>
+      <c r="DB5" s="7"/>
+      <c r="DC5" s="7"/>
+      <c r="DD5" s="7"/>
+      <c r="DE5" s="7"/>
+      <c r="DF5" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="DG5" s="4"/>
-      <c r="DH5" s="4"/>
-      <c r="DI5" s="4"/>
-      <c r="DJ5" s="4"/>
-      <c r="DN5" s="4" t="s">
+      <c r="DG5" s="7"/>
+      <c r="DH5" s="7"/>
+      <c r="DI5" s="7"/>
+      <c r="DJ5" s="7"/>
+      <c r="DN5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="DO5" s="1" t="s">
@@ -37390,16 +37410,16 @@
       <c r="DV5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="DW5" s="4" t="s">
+      <c r="DW5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="DX5" s="4" t="s">
+      <c r="DX5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="EC5" s="4" t="s">
+      <c r="EC5" s="7" t="s">
         <v>1579</v>
       </c>
-      <c r="ED5" s="4" t="s">
+      <c r="ED5" s="7" t="s">
         <v>1581</v>
       </c>
       <c r="EN5" s="1" t="s">
@@ -37414,17 +37434,17 @@
       <c r="EQ5" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="ER5" s="4" t="s">
+      <c r="ER5" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="ES5" s="4" t="s">
+      <c r="ES5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="ET5" s="4"/>
+      <c r="ET5" s="7"/>
       <c r="EU5" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="EV5" s="4" t="s">
+      <c r="EV5" s="7" t="s">
         <v>143</v>
       </c>
       <c r="EW5" s="1" t="s">
@@ -37437,33 +37457,33 @@
       <c r="FB5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="FD5" s="4" t="s">
+      <c r="FD5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="FE5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="FK5" s="4" t="s">
+      <c r="FK5" s="7" t="s">
         <v>1533</v>
       </c>
-      <c r="FL5" s="4"/>
-      <c r="FM5" s="4"/>
-      <c r="FN5" s="4"/>
-      <c r="FO5" s="4"/>
-      <c r="FP5" s="4"/>
-      <c r="FQ5" s="4"/>
-      <c r="FR5" s="4"/>
-      <c r="FS5" s="4"/>
-      <c r="FT5" s="4" t="s">
+      <c r="FL5" s="7"/>
+      <c r="FM5" s="7"/>
+      <c r="FN5" s="7"/>
+      <c r="FO5" s="7"/>
+      <c r="FP5" s="7"/>
+      <c r="FQ5" s="7"/>
+      <c r="FR5" s="7"/>
+      <c r="FS5" s="7"/>
+      <c r="FT5" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="FU5" s="4"/>
-      <c r="FV5" s="4"/>
-      <c r="FW5" s="4"/>
-      <c r="FX5" s="4"/>
+      <c r="FU5" s="7"/>
+      <c r="FV5" s="7"/>
+      <c r="FW5" s="7"/>
+      <c r="FX5" s="7"/>
     </row>
     <row r="6" spans="1:191" hidden="1">
-      <c r="AF6" s="4" t="s">
+      <c r="AF6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AG6" s="1" t="s">
@@ -37478,7 +37498,7 @@
       <c r="AJ6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AV6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AW6" s="1" t="s">
@@ -37493,7 +37513,7 @@
       <c r="AZ6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BS6" s="4" t="s">
+      <c r="BS6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="BT6" s="1" t="s">
@@ -37508,12 +37528,12 @@
       <c r="BW6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CG6" s="4" t="s">
+      <c r="CG6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CH6" s="4"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="4"/>
+      <c r="CH6" s="7"/>
+      <c r="CI6" s="7"/>
+      <c r="CJ6" s="7"/>
       <c r="CK6" s="1" t="s">
         <v>38</v>
       </c>
@@ -37521,7 +37541,7 @@
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
-      <c r="CP6" s="4" t="s">
+      <c r="CP6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="CQ6" s="1" t="s">
@@ -37536,12 +37556,12 @@
       <c r="CT6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CW6" s="4" t="s">
+      <c r="CW6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CX6" s="4"/>
-      <c r="CY6" s="4"/>
-      <c r="CZ6" s="4"/>
+      <c r="CX6" s="7"/>
+      <c r="CY6" s="7"/>
+      <c r="CZ6" s="7"/>
       <c r="DA6" s="1" t="s">
         <v>38</v>
       </c>
@@ -37549,7 +37569,7 @@
       <c r="DC6" s="1"/>
       <c r="DD6" s="1"/>
       <c r="DE6" s="1"/>
-      <c r="DF6" s="4" t="s">
+      <c r="DF6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="DG6" s="1" t="s">
@@ -37564,13 +37584,13 @@
       <c r="DJ6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="ES6" s="4" t="s">
+      <c r="ES6" s="7" t="s">
         <v>1579</v>
       </c>
-      <c r="ET6" s="4" t="s">
+      <c r="ET6" s="7" t="s">
         <v>1581</v>
       </c>
-      <c r="EW6" s="4" t="s">
+      <c r="EW6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="EX6" s="1" t="s">
@@ -37585,12 +37605,12 @@
       <c r="FA6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="FK6" s="4" t="s">
+      <c r="FK6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="FL6" s="4"/>
-      <c r="FM6" s="4"/>
-      <c r="FN6" s="4"/>
+      <c r="FL6" s="7"/>
+      <c r="FM6" s="7"/>
+      <c r="FN6" s="7"/>
       <c r="FO6" s="1" t="s">
         <v>38</v>
       </c>
@@ -37598,7 +37618,7 @@
       <c r="FQ6" s="1"/>
       <c r="FR6" s="1"/>
       <c r="FS6" s="1"/>
-      <c r="FT6" s="4" t="s">
+      <c r="FT6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="FU6" s="1" t="s">
@@ -37615,15 +37635,15 @@
       </c>
     </row>
     <row r="7" spans="1:191" hidden="1">
-      <c r="CG7" s="4" t="s">
+      <c r="CG7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CH7" s="4" t="s">
+      <c r="CH7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CI7" s="4"/>
-      <c r="CJ7" s="4"/>
-      <c r="CK7" s="4" t="s">
+      <c r="CI7" s="7"/>
+      <c r="CJ7" s="7"/>
+      <c r="CK7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="CL7" s="1" t="s">
@@ -37638,15 +37658,15 @@
       <c r="CO7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CW7" s="4" t="s">
+      <c r="CW7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CX7" s="4" t="s">
+      <c r="CX7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CY7" s="4"/>
-      <c r="CZ7" s="4"/>
-      <c r="DA7" s="4" t="s">
+      <c r="CY7" s="7"/>
+      <c r="CZ7" s="7"/>
+      <c r="DA7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="DB7" s="1" t="s">
@@ -37661,15 +37681,15 @@
       <c r="DE7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="FK7" s="4" t="s">
+      <c r="FK7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="FL7" s="4" t="s">
+      <c r="FL7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="FM7" s="4"/>
-      <c r="FN7" s="4"/>
-      <c r="FO7" s="4" t="s">
+      <c r="FM7" s="7"/>
+      <c r="FN7" s="7"/>
+      <c r="FO7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="FP7" s="1" t="s">
@@ -37686,7 +37706,7 @@
       </c>
     </row>
     <row r="8" spans="1:191" hidden="1">
-      <c r="CH8" s="4" t="s">
+      <c r="CH8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="CI8" s="1" t="s">
@@ -37695,7 +37715,7 @@
       <c r="CJ8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CX8" s="4" t="s">
+      <c r="CX8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="CY8" s="1" t="s">
@@ -37704,7 +37724,7 @@
       <c r="CZ8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="FL8" s="4" t="s">
+      <c r="FL8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="FM8" s="1" t="s">
@@ -37715,13 +37735,13 @@
       </c>
     </row>
     <row r="9" spans="1:191">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>1422</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -38524,71 +38544,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
-    <col min="4" max="4" width="88.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="8" width="72.7109375" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" customWidth="1"/>
-    <col min="12" max="12" width="86.7109375" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" customWidth="1"/>
-    <col min="14" max="14" width="100.7109375" customWidth="1"/>
-    <col min="15" max="15" width="52.7109375" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" customWidth="1"/>
-    <col min="17" max="17" width="72.7109375" customWidth="1"/>
-    <col min="18" max="18" width="54.7109375" customWidth="1"/>
-    <col min="19" max="19" width="50.7109375" customWidth="1"/>
-    <col min="20" max="20" width="44.7109375" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1"/>
-    <col min="23" max="23" width="58.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="92.7109375" customWidth="1"/>
-    <col min="26" max="26" width="104.7109375" customWidth="1"/>
-    <col min="27" max="27" width="56.7109375" customWidth="1"/>
-    <col min="28" max="28" width="64.7109375" customWidth="1"/>
-    <col min="29" max="29" width="76.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="54.7109375" customWidth="1"/>
-    <col min="32" max="32" width="20.7109375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1"/>
-    <col min="37" max="37" width="36.7109375" customWidth="1"/>
-    <col min="38" max="38" width="34.7109375" customWidth="1"/>
-    <col min="39" max="39" width="28.7109375" customWidth="1"/>
-    <col min="40" max="40" width="16.7109375" customWidth="1"/>
-    <col min="41" max="41" width="30.7109375" customWidth="1"/>
-    <col min="42" max="42" width="42.7109375" customWidth="1"/>
-    <col min="43" max="43" width="50.7109375" customWidth="1"/>
-    <col min="44" max="44" width="62.7109375" customWidth="1"/>
-    <col min="45" max="45" width="44.7109375" customWidth="1"/>
-    <col min="46" max="46" width="40.7109375" customWidth="1"/>
-    <col min="47" max="47" width="30.7109375" style="2" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" customWidth="1"/>
-    <col min="49" max="49" width="44.7109375" style="2" customWidth="1"/>
-    <col min="50" max="50" width="42.7109375" customWidth="1"/>
-    <col min="51" max="51" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="72.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="54.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="86.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="88.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="100.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="52.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="72.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="54.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="50.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="44.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="36.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="58.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="90.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="92.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="104.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="56.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="64.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="76.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="58.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="54.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="52.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="36.7109375" style="2" customWidth="1"/>
+    <col min="38" max="38" width="34.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="28.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="30.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="42.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="50.7109375" style="2" customWidth="1"/>
+    <col min="44" max="44" width="62.7109375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="44.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="40.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="30.7109375" style="3" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" style="2" customWidth="1"/>
+    <col min="49" max="49" width="44.7109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="42.7109375" style="5" customWidth="1"/>
+    <col min="51" max="51" width="48.7109375" style="2" customWidth="1"/>
     <col min="52" max="52" width="40.7109375" customWidth="1"/>
-    <col min="53" max="53" width="30.7109375" customWidth="1"/>
-    <col min="54" max="54" width="40.7109375" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" customWidth="1"/>
+    <col min="53" max="53" width="30.7109375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="40.7109375" style="2" customWidth="1"/>
+    <col min="55" max="55" width="34.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" hidden="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>2838</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2839</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -38612,10 +38632,10 @@
       <c r="J1" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>2848</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>2849</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -38749,31 +38769,31 @@
       </c>
     </row>
     <row r="2" spans="1:55" hidden="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>2847</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>2857</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
@@ -38834,12 +38854,12 @@
       <c r="BC2" s="1"/>
     </row>
     <row r="3" spans="1:55" hidden="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
@@ -38847,12 +38867,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="1" t="s">
         <v>38</v>
       </c>
@@ -38860,18 +38880,18 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="1" t="s">
         <v>38</v>
       </c>
@@ -38879,10 +38899,10 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="7" t="s">
         <v>2872</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="7" t="s">
         <v>2874</v>
       </c>
       <c r="AK3" s="1" t="s">
@@ -38894,7 +38914,7 @@
       <c r="AM3" s="1" t="s">
         <v>2881</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="7" t="s">
         <v>143</v>
       </c>
       <c r="AP3" s="1" t="s">
@@ -38907,17 +38927,17 @@
       <c r="AU3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4" t="s">
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="4"/>
+      <c r="AZ3" s="7"/>
       <c r="BA3" s="1" t="s">
         <v>165</v>
       </c>
@@ -38929,15 +38949,15 @@
       </c>
     </row>
     <row r="4" spans="1:55" hidden="1">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -38952,15 +38972,15 @@
       <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -38975,15 +38995,15 @@
       <c r="S4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AB4" s="1" t="s">
@@ -38998,7 +39018,7 @@
       <c r="AE4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AP4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -39019,15 +39039,15 @@
       <c r="AX4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AY4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:55" hidden="1">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -39036,7 +39056,7 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -39045,7 +39065,7 @@
       <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -39056,13 +39076,13 @@
       </c>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>2838</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>2839</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -39086,10 +39106,10 @@
       <c r="J6" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="9" t="s">
         <v>2848</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="9" t="s">
         <v>2849</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -39289,23 +39309,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" hidden="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1422</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -39322,13 +39342,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>2927</v>
       </c>
@@ -39337,16 +39357,16 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2920</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>2922</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -39357,13 +39377,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>1422</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -39400,4 +39420,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,10 +8812,10 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-19 16:18:46.015700</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>2024-07-23 17:11:36.751671</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8537" uniqueCount="2935">
   <si>
     <t>identificatie</t>
   </si>
@@ -8812,13 +8812,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:11:36.751671</t>
+    <t>2024-07-23 17:34:45.219456</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>Ruben Vijverman</t>
   </si>
 </sst>
 </file>
@@ -39424,7 +39430,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39446,6 +39452,14 @@
         <v>2932</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:34:45.219456</t>
+    <t>2024-07-24 08:44:23.657670</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 08:44:23.657670</t>
+    <t>2024-07-24 09:00:00.093005</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 09:00:00.093005</t>
+    <t>2024-07-24 13:26:29.420856</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 13:26:29.420856</t>
+    <t>2024-08-01 09:38:04.972003</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-01 09:38:04.972003</t>
+    <t>2024-08-02 15:51:34.779734</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8537" uniqueCount="2935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="2933">
   <si>
     <t>identificatie</t>
   </si>
@@ -8812,19 +8812,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 15:51:34.779734</t>
+    <t>2024-08-02 16:50:18.746590</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>generated_by</t>
-  </si>
-  <si>
-    <t>Ruben Vijverman</t>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -39430,7 +39424,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39452,14 +39446,6 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2934</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 16:50:18.746590</t>
+    <t>2024-08-05 10:13:24.757894</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="2937">
   <si>
     <t>identificatie</t>
   </si>
@@ -8812,13 +8812,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-05 10:13:24.757894</t>
+    <t>2024-08-07 13:31:37.667167</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>2.0.0</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>xsd_schema.json</t>
   </si>
 </sst>
 </file>
@@ -39424,7 +39436,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39446,6 +39458,22 @@
         <v>2932</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-07 13:31:37.667167</t>
+    <t>2024-08-08 11:46:47.340045</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,13 +8812,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-08 11:46:47.340045</t>
+    <t>2024-08-12 14:45:30.215020</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>mode</t>
@@ -8830,7 +8830,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>xsd_schema.json</t>
+    <t>productie</t>
   </si>
 </sst>
 </file>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-12 14:45:30.215020</t>
+    <t>2024-09-10 13:00:47.657119</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,13 +8812,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:00:47.657119</t>
+    <t>2024-09-10 13:37:33.087084</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.2</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -8812,7 +8812,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:37:33.087084</t>
+    <t>2024-11-07 19:29:07.048903</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,7 +9568,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:17.157550</t>
+    <t>2024-11-08 02:13:53.946374</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,7 +9568,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:53.946374</t>
+    <t>2024-11-08 08:59:53.817785</t>
   </si>
   <si>
     <t>version</t>
@@ -9580,7 +9580,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,19 +9568,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 08:59:53.817785</t>
+    <t>2024-11-12 08:42:18.792199</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.3</t>
+    <t>2.0.4</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>source</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,13 +9568,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:18.792199</t>
+    <t>2024-12-02 16:44:11.935059</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,13 +9568,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:11.935059</t>
+    <t>2024-12-10 17:55:18.400053</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,13 +9568,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-10 17:55:18.400053</t>
+    <t>2024-12-20 12:16:40.188140</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.6</t>
+    <t>2.0.7</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,7 +9568,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:40.188140</t>
+    <t>2024-12-20 14:58:08.979592</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9568,13 +9568,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:08.979592</t>
+    <t>2024-12-23 11:42:03.858613</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10485" uniqueCount="3225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10487" uniqueCount="3227">
   <si>
     <t>identificatie</t>
   </si>
@@ -9670,7 +9670,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:01.863201</t>
+    <t>2025-02-14 14:05:31.886783</t>
   </si>
   <si>
     <t>version</t>
@@ -9679,10 +9679,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -46703,7 +46709,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46749,6 +46755,14 @@
         <v>3224</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9670,13 +9670,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:31.886783</t>
+    <t>2025-02-24 16:59:53.797012</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/grondwater_template_full.xlsx
+++ b/data/grondwater_template_full.xlsx
@@ -9670,13 +9670,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:53.797012</t>
+    <t>2025-02-28 11:24:47.349852</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
